--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EF14EF-7A60-41F3-ADBD-95001AC9C3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143D3E2E-FB43-4AA2-BE36-3B22AED644D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
+    <workbookView xWindow="6195" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>Linked list, create a temporate node with the next one, and substitute</t>
+  </si>
+  <si>
+    <t>Good 2 Pointer to practice problem solving</t>
+  </si>
+  <si>
+    <t>isStrictlyPalindromic</t>
   </si>
 </sst>
 </file>
@@ -167,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +183,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,55 +208,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -592,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CE9E97-2B99-405F-AEFD-436D25B2305A}">
   <dimension ref="A1:L221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +697,7 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -770,7 +740,7 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F8" t="s">
@@ -841,11 +811,35 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1889,7 +1883,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1213">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143D3E2E-FB43-4AA2-BE36-3B22AED644D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007179E6-A33E-4D5B-B912-B07A0C93717E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>isStrictlyPalindromic</t>
+  </si>
+  <si>
+    <t>Sort first, iterate trough all with one pointer to the second number and a the other to the last. Increment or decrement these indexes as required To mind the edge cases with 3+ equual numbers, (de)increment while the following number is the same</t>
+  </si>
+  <si>
+    <t>ThreeSum</t>
+  </si>
+  <si>
+    <t>TwoSum II</t>
   </si>
 </sst>
 </file>
@@ -205,11 +214,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +575,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,11 +857,35 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" s="1">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1882,7 +1918,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1213">
+  <conditionalFormatting sqref="C1:C13 C15:C1213">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",C1)))</formula>
     </cfRule>
@@ -1907,7 +1943,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C1:C1213</xm:sqref>
+          <xm:sqref>C1:C13 C15:C1213</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007179E6-A33E-4D5B-B912-B07A0C93717E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A8FD17-9554-475D-891D-F6E4B7A03454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>TwoSum II</t>
+  </si>
+  <si>
+    <t>Convert string to int with stoi(), then push it to stack if its a number, else (aka operand) make two pops and do the respective calc. Key part is pushing the solution back to the stack, so it is first parameter of the next calculation</t>
+  </si>
+  <si>
+    <t>evalRPN</t>
   </si>
 </sst>
 </file>
@@ -575,7 +581,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,6 +896,21 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A8FD17-9554-475D-891D-F6E4B7A03454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D14C50-243F-43FD-800C-A1444E225503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -167,13 +167,19 @@
   </si>
   <si>
     <t>evalRPN</t>
+  </si>
+  <si>
+    <t>347. Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>learnt pretty much nothing, this is too hard of a challenge, decided to practice more easy array examples, and didn’t count it as an example</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,8 +193,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,8 +228,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -216,11 +242,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -228,8 +270,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -581,7 +628,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -913,82 +960,97 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D14C50-243F-43FD-800C-A1444E225503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85888DAB-6DC4-491C-93F9-8AE69B82C119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>learnt pretty much nothing, this is too hard of a challenge, decided to practice more easy array examples, and didn’t count it as an example</t>
+  </si>
+  <si>
+    <t>isValidSudoku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complexity is nested loops, but this is a cool example because we can avoid the triple nested loops. We do this by nest looping collums and rows, by identifying which area the new number belongs to, create an array for it and make sure we don’t add a  duplicate to that  one. This duplicate verification is boolean 2D array[collums][number] || array[row][number] || array[area][number]   </t>
   </si>
 </sst>
 </file>
@@ -262,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -274,6 +280,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -628,7 +637,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,6 +992,21 @@
     <row r="18" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85888DAB-6DC4-491C-93F9-8AE69B82C119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C8DE75-ACC3-4046-A101-5013A8D246A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -179,13 +179,19 @@
   </si>
   <si>
     <t xml:space="preserve">Complexity is nested loops, but this is a cool example because we can avoid the triple nested loops. We do this by nest looping collums and rows, by identifying which area the new number belongs to, create an array for it and make sure we don’t add a  duplicate to that  one. This duplicate verification is boolean 2D array[collums][number] || array[row][number] || array[area][number]   </t>
+  </si>
+  <si>
+    <t>majorityElement</t>
+  </si>
+  <si>
+    <t>map the numbers in the array and pair them with a count, mathmatically speaking you can only have 1 number with count bigger than half the array size (majority), so thats what you look for when iterating the map</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +219,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -268,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -282,6 +293,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -637,7 +651,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,6 +1026,21 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C8DE75-ACC3-4046-A101-5013A8D246A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E52EB3-8A09-44FE-8721-0109CEAAC47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>map the numbers in the array and pair them with a count, mathmatically speaking you can only have 1 number with count bigger than half the array size (majority), so thats what you look for when iterating the map</t>
+  </si>
+  <si>
+    <t>Recursive function that favors opening a parenthesis and then if closing is still valid also opens another one</t>
+  </si>
+  <si>
+    <t>Generate Valid parenthesis</t>
   </si>
 </sst>
 </file>
@@ -651,7 +657,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,6 +1052,21 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E52EB3-8A09-44FE-8721-0109CEAAC47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DDE9B0-DDAA-44A0-8F5C-7DE39EFDE916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Generate Valid parenthesis</t>
+  </si>
+  <si>
+    <t>Loop where u add the next value to the overall saved sum</t>
+  </si>
+  <si>
+    <t>runningSum</t>
   </si>
 </sst>
 </file>
@@ -657,7 +663,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,6 +1078,21 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DDE9B0-DDAA-44A0-8F5C-7DE39EFDE916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD30EF4-F0CA-4A6C-AA4A-444852601BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>runningSum</t>
+  </si>
+  <si>
+    <t>productExceptSelf</t>
+  </si>
+  <si>
+    <t>Calculate prefix products forward, then postfix backwards in a 2nd pass</t>
   </si>
 </sst>
 </file>
@@ -663,7 +669,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,6 +1104,21 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD30EF4-F0CA-4A6C-AA4A-444852601BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27234B76-0606-4C81-B1DE-AA25FBEF7128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -203,6 +203,18 @@
   </si>
   <si>
     <t>Calculate prefix products forward, then postfix backwards in a 2nd pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical exercise for sliding window algorithm, increases the window while letter is different, reset once it is the same </t>
+  </si>
+  <si>
+    <t>13 missed 1</t>
+  </si>
+  <si>
+    <t>REDO</t>
+  </si>
+  <si>
+    <t>lengthOfLongestSubstring</t>
   </si>
 </sst>
 </file>
@@ -324,14 +336,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -669,13 +681,13 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
@@ -1125,6 +1137,21 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2118,7 +2145,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C13 C15:C1213">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27234B76-0606-4C81-B1DE-AA25FBEF7128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E13A64-1CDF-42FF-8A54-53029D0AB457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -681,7 +681,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,6 +1156,21 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
+      </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E13A64-1CDF-42FF-8A54-53029D0AB457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288FEBA7-3AB0-4B24-9A03-71A2796EB6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -215,13 +215,25 @@
   </si>
   <si>
     <t>lengthOfLongestSubstring</t>
+  </si>
+  <si>
+    <t>Since  the array is sorted this is a clear angle for  Binary Search</t>
+  </si>
+  <si>
+    <t>missed 1</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +264,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -309,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -325,6 +343,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,7 +702,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="A17:XFD17"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,10 +1198,29 @@
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
+      </c>
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288FEBA7-3AB0-4B24-9A03-71A2796EB6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EA1BB0-A56F-4E00-9090-EDFA70F3E14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>Search</t>
+  </si>
+  <si>
+    <t>Perform 2 binary searches: 1 to find row, then another to find col</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,6 +1229,9 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EA1BB0-A56F-4E00-9090-EDFA70F3E14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABFAE5C-97CD-45F2-90D3-16743B6BE94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>Perform 2 binary searches: 1 to find row, then another to find col</t>
+  </si>
+  <si>
+    <t>swap(root-&gt;right,root-&gt;left);</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t> Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>invertTree</t>
   </si>
 </sst>
 </file>
@@ -705,7 +717,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,6 +1242,18 @@
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F27" t="s">
         <v>64</v>
       </c>
@@ -1237,6 +1261,21 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
+      </c>
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABFAE5C-97CD-45F2-90D3-16743B6BE94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C89581F-40FC-4958-AF55-16F394BB9E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>invertTree</t>
+  </si>
+  <si>
+    <t>numIdenticalPairs</t>
+  </si>
+  <si>
+    <t>Great exercise to understand how you can populate an unordered map and do the math at the same time. Great exercise to achieve O(n)</t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,6 +1287,21 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
+      </c>
+      <c r="B29">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C89581F-40FC-4958-AF55-16F394BB9E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C32391-EE91-4708-A4B6-CB33B7E511DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>Great exercise to understand how you can populate an unordered map and do the math at the same time. Great exercise to achieve O(n)</t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>Did by myself which means I understood the previous teachings on DFS. It is a simple aplication of that</t>
   </si>
 </sst>
 </file>
@@ -723,7 +729,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,93 +1314,126 @@
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31">
+        <v>21</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C32391-EE91-4708-A4B6-CB33B7E511DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FD274E-CB53-41EF-898A-9A7CA8F67695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>Did by myself which means I understood the previous teachings on DFS. It is a simple aplication of that</t>
+  </si>
+  <si>
+    <t>Permutation in String</t>
+  </si>
+  <si>
+    <t>This one has a weird solution, that is hard to find out, but easy to code out</t>
   </si>
 </sst>
 </file>
@@ -728,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CE9E97-2B99-405F-AEFD-436D25B2305A}">
   <dimension ref="A1:L221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,6 +1366,18 @@
       </c>
       <c r="B34">
         <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FD274E-CB53-41EF-898A-9A7CA8F67695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84AFBFA-7C8F-4E4B-93D4-6A5115FF4308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -260,6 +260,21 @@
   </si>
   <si>
     <t>This one has a weird solution, that is hard to find out, but easy to code out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy,made by myself. Had to peak the solutions to correct some of my mistakes but it was fine. Belongs to the 100 most liked questions on Leetcode </t>
+  </si>
+  <si>
+    <t>searchInsert</t>
+  </si>
+  <si>
+    <t>Top Liked</t>
+  </si>
+  <si>
+    <t>romanToInt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy. Just add the following number, but be careful with the final edge case. Had to peak the solutions tho. Belongs to the 100 most liked questions on Leetcode </t>
   </si>
 </sst>
 </file>
@@ -307,7 +322,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +344,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -360,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -381,6 +402,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -734,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CE9E97-2B99-405F-AEFD-436D25B2305A}">
   <dimension ref="A1:L221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +770,7 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="135.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="135.7109375" customWidth="1"/>
     <col min="7" max="9" width="11" customWidth="1"/>
     <col min="10" max="12" width="12" customWidth="1"/>
   </cols>
@@ -1387,6 +1412,18 @@
       <c r="B35">
         <v>25</v>
       </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -1394,6 +1431,18 @@
       </c>
       <c r="B36">
         <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84AFBFA-7C8F-4E4B-93D4-6A5115FF4308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE933CDC-F2E4-41AE-BCD8-81D3D70A18DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t xml:space="preserve">Easy. Just add the following number, but be careful with the final edge case. Had to peak the solutions tho. Belongs to the 100 most liked questions on Leetcode </t>
+  </si>
+  <si>
+    <t>Easy. Had some problems since i was accessing outside of memory. There is a way to solve this using recursion which i should try next</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle</t>
   </si>
 </sst>
 </file>
@@ -381,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -406,6 +412,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -461,9 +470,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -501,7 +510,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -607,7 +616,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -749,7 +758,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -759,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CE9E97-2B99-405F-AEFD-436D25B2305A}">
   <dimension ref="A1:L221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,6 +1457,21 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
+      </c>
+      <c r="B37">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE933CDC-F2E4-41AE-BCD8-81D3D70A18DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1245997C-7CA1-4CF6-8E31-7BE325E6C29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>Wanted to check out the recursion solutionfor this problem. Added some pritnfs to better understand</t>
   </si>
 </sst>
 </file>
@@ -769,7 +772,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,6 +1480,21 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
+      </c>
+      <c r="B38">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1245997C-7CA1-4CF6-8E31-7BE325E6C29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F84A21-D857-4843-898A-B1113AA8AA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>Wanted to check out the recursion solutionfor this problem. Added some pritnfs to better understand</t>
+  </si>
+  <si>
+    <t>From the description of the Dutch Flag algorithm ended up finding the solution. Just with the 2 pointers Algorithm, finding a solution was not possible I believe</t>
+  </si>
+  <si>
+    <t>Sort Colors</t>
   </si>
 </sst>
 </file>
@@ -772,7 +778,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,6 +1506,21 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
+      </c>
+      <c r="B39">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaral\GitRepos\LeetCode-Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F84A21-D857-4843-898A-B1113AA8AA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2C8674-4777-416D-8D81-A74774568BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0726A895-2255-4A1C-8358-142053C22366}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
   <si>
     <t>containsDuplicate</t>
   </si>
@@ -290,6 +290,24 @@
   </si>
   <si>
     <t>Sort Colors</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>findMatrix</t>
+  </si>
+  <si>
+    <t>Good medium challenge, took me 40min but managed to reach the right "algorithm" by myself - with great runtime too -</t>
+  </si>
+  <si>
+    <t>42 School</t>
+  </si>
+  <si>
+    <t>ft_print_comb</t>
+  </si>
+  <si>
+    <t>create a function that displays all different combinations of three different digits in ascending order, listed by ascending order - yes, repetition is voluntary.</t>
   </si>
 </sst>
 </file>
@@ -479,9 +497,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -519,7 +537,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -625,7 +643,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -767,7 +785,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -778,7 +796,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="G32" sqref="G31:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,10 +1545,37 @@
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
+      </c>
+      <c r="B41">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="98">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t xml:space="preserve">Good easy DFS and Binary tree problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lowestCommonAncestor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good problem, not very hard after understanding BST property that values are sorted.</t>
   </si>
 </sst>
 </file>
@@ -467,32 +473,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -500,35 +510,35 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -899,4877 +909,4891 @@
   </sheetPr>
   <dimension ref="A1:L1213"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="135.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="135.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="1" width="12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="2"/>
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="F25" s="10"/>
+      <c r="C25" s="2"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="B44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="C54" s="1"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="C56" s="1"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="C57" s="1"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="C58" s="1"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="C59" s="1"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="C60" s="1"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="C61" s="1"/>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="C63" s="1"/>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="C65" s="1"/>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="C66" s="1"/>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="C67" s="1"/>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="C68" s="1"/>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="A69" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="C69" s="1"/>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="A70" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="C70" s="1"/>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="A71" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="C71" s="1"/>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="A72" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="C72" s="1"/>
+      <c r="C72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="A73" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="C73" s="1"/>
+      <c r="C73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="A74" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="C74" s="1"/>
+      <c r="C74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="C75" s="1"/>
+      <c r="C75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="A76" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+      <c r="A77" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="C77" s="1"/>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+      <c r="A78" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="C78" s="1"/>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="A79" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="C79" s="1"/>
+      <c r="C79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="A80" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="C80" s="1"/>
+      <c r="C80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+      <c r="A81" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="C81" s="1"/>
+      <c r="C81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="A82" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="C82" s="1"/>
+      <c r="C82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="A83" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="C83" s="1"/>
+      <c r="C83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="A84" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="C84" s="1"/>
+      <c r="C84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="A85" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="C85" s="1"/>
+      <c r="C85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+      <c r="A86" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="C86" s="1"/>
+      <c r="C86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+      <c r="A87" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="C87" s="1"/>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+      <c r="A88" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="C88" s="1"/>
+      <c r="C88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+      <c r="A89" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="C89" s="1"/>
+      <c r="C89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+      <c r="A90" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="C90" s="1"/>
+      <c r="C90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+      <c r="A91" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="C91" s="1"/>
+      <c r="C91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+      <c r="A92" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="C92" s="1"/>
+      <c r="C92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+      <c r="A93" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="C93" s="1"/>
+      <c r="C93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+      <c r="A94" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="C94" s="1"/>
+      <c r="C94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+      <c r="A95" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="C95" s="1"/>
+      <c r="C95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+      <c r="A96" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="C96" s="1"/>
+      <c r="C96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+      <c r="A97" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="C97" s="1"/>
+      <c r="C97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+      <c r="A98" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="C98" s="1"/>
+      <c r="C98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+      <c r="A99" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="C99" s="1"/>
+      <c r="C99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+      <c r="A100" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="C100" s="1"/>
+      <c r="C100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+      <c r="A101" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C101" s="1"/>
+      <c r="C101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+      <c r="A102" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="C102" s="1"/>
+      <c r="C102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+      <c r="A103" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="C103" s="1"/>
+      <c r="C103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+      <c r="A104" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="C104" s="1"/>
+      <c r="C104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+      <c r="A105" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="C105" s="1"/>
+      <c r="C105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+      <c r="A106" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="C106" s="1"/>
+      <c r="C106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+      <c r="A107" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="C107" s="1"/>
+      <c r="C107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+      <c r="A108" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="C108" s="1"/>
+      <c r="C108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+      <c r="A109" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="C109" s="1"/>
+      <c r="C109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+      <c r="A110" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="C110" s="1"/>
+      <c r="C110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+      <c r="A111" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="C111" s="1"/>
+      <c r="C111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+      <c r="A112" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="C112" s="1"/>
+      <c r="C112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+      <c r="A113" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="C113" s="1"/>
+      <c r="C113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+      <c r="A114" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="C114" s="1"/>
+      <c r="C114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+      <c r="A115" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="C115" s="1"/>
+      <c r="C115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+      <c r="A116" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="C116" s="1"/>
+      <c r="C116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+      <c r="A117" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="C117" s="1"/>
+      <c r="C117" s="2"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+      <c r="A118" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="C118" s="1"/>
+      <c r="C118" s="2"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+      <c r="A119" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="C119" s="1"/>
+      <c r="C119" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
+      <c r="A120" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="C120" s="1"/>
+      <c r="C120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
+      <c r="A121" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="C121" s="1"/>
+      <c r="C121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
+      <c r="A122" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="C122" s="1"/>
+      <c r="C122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
+      <c r="A123" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="C123" s="1"/>
+      <c r="C123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="n">
+      <c r="A124" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="C124" s="1"/>
+      <c r="C124" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
+      <c r="A125" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="C125" s="1"/>
+      <c r="C125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
+      <c r="A126" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="C126" s="1"/>
+      <c r="C126" s="2"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
+      <c r="A127" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="C127" s="1"/>
+      <c r="C127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="n">
+      <c r="A128" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="C128" s="1"/>
+      <c r="C128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
+      <c r="A129" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="C129" s="1"/>
+      <c r="C129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
+      <c r="A130" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="C130" s="1"/>
+      <c r="C130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="n">
+      <c r="A131" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="C131" s="1"/>
+      <c r="C131" s="2"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="n">
+      <c r="A132" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="C132" s="1"/>
+      <c r="C132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="n">
+      <c r="A133" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="C133" s="1"/>
+      <c r="C133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="n">
+      <c r="A134" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="C134" s="1"/>
+      <c r="C134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="n">
+      <c r="A135" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="C135" s="1"/>
+      <c r="C135" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="n">
+      <c r="A136" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="C136" s="1"/>
+      <c r="C136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="n">
+      <c r="A137" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="C137" s="1"/>
+      <c r="C137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="n">
+      <c r="A138" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="C138" s="1"/>
+      <c r="C138" s="2"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="n">
+      <c r="A139" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="C139" s="1"/>
+      <c r="C139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="n">
+      <c r="A140" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="C140" s="1"/>
+      <c r="C140" s="2"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="n">
+      <c r="A141" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="C141" s="1"/>
+      <c r="C141" s="2"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="n">
+      <c r="A142" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="C142" s="1"/>
+      <c r="C142" s="2"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="n">
+      <c r="A143" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="C143" s="1"/>
+      <c r="C143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="n">
+      <c r="A144" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="C144" s="1"/>
+      <c r="C144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="n">
+      <c r="A145" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="C145" s="1"/>
+      <c r="C145" s="2"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="n">
+      <c r="A146" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="C146" s="1"/>
+      <c r="C146" s="2"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="n">
+      <c r="A147" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="C147" s="1"/>
+      <c r="C147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="n">
+      <c r="A148" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="C148" s="1"/>
+      <c r="C148" s="2"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="n">
+      <c r="A149" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="C149" s="1"/>
+      <c r="C149" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="n">
+      <c r="A150" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="C150" s="1"/>
+      <c r="C150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="n">
+      <c r="A151" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="C151" s="1"/>
+      <c r="C151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="n">
+      <c r="A152" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="C152" s="1"/>
+      <c r="C152" s="2"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="n">
+      <c r="A153" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="C153" s="1"/>
+      <c r="C153" s="2"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="n">
+      <c r="A154" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="C154" s="1"/>
+      <c r="C154" s="2"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="n">
+      <c r="A155" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="C155" s="1"/>
+      <c r="C155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="n">
+      <c r="A156" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="C156" s="1"/>
+      <c r="C156" s="2"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="n">
+      <c r="A157" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="C157" s="1"/>
+      <c r="C157" s="2"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="n">
+      <c r="A158" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="C158" s="1"/>
+      <c r="C158" s="2"/>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="n">
+      <c r="A159" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="C159" s="1"/>
+      <c r="C159" s="2"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="n">
+      <c r="A160" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="C160" s="1"/>
+      <c r="C160" s="2"/>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="n">
+      <c r="A161" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="C161" s="1"/>
+      <c r="C161" s="2"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="n">
+      <c r="A162" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="C162" s="1"/>
+      <c r="C162" s="2"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="n">
+      <c r="A163" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="C163" s="1"/>
+      <c r="C163" s="2"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="n">
+      <c r="A164" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="C164" s="1"/>
+      <c r="C164" s="2"/>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="n">
+      <c r="A165" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="C165" s="1"/>
+      <c r="C165" s="2"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="n">
+      <c r="A166" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="C166" s="1"/>
+      <c r="C166" s="2"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="n">
+      <c r="A167" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="C167" s="1"/>
+      <c r="C167" s="2"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="n">
+      <c r="A168" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="C168" s="1"/>
+      <c r="C168" s="2"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="n">
+      <c r="A169" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="C169" s="1"/>
+      <c r="C169" s="2"/>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="n">
+      <c r="A170" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="C170" s="1"/>
+      <c r="C170" s="2"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="n">
+      <c r="A171" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="C171" s="1"/>
+      <c r="C171" s="2"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="n">
+      <c r="A172" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="C172" s="1"/>
+      <c r="C172" s="2"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="n">
+      <c r="A173" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="C173" s="1"/>
+      <c r="C173" s="2"/>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="n">
+      <c r="A174" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="C174" s="1"/>
+      <c r="C174" s="2"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="n">
+      <c r="A175" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="C175" s="1"/>
+      <c r="C175" s="2"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="n">
+      <c r="A176" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="C176" s="1"/>
+      <c r="C176" s="2"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="n">
+      <c r="A177" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="C177" s="1"/>
+      <c r="C177" s="2"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="n">
+      <c r="A178" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="C178" s="1"/>
+      <c r="C178" s="2"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="n">
+      <c r="A179" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="C179" s="1"/>
+      <c r="C179" s="2"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="n">
+      <c r="A180" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="C180" s="1"/>
+      <c r="C180" s="2"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="n">
+      <c r="A181" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="C181" s="1"/>
+      <c r="C181" s="2"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="n">
+      <c r="A182" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="C182" s="1"/>
+      <c r="C182" s="2"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="n">
+      <c r="A183" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="C183" s="1"/>
+      <c r="C183" s="2"/>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="n">
+      <c r="A184" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="C184" s="1"/>
+      <c r="C184" s="2"/>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="n">
+      <c r="A185" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="C185" s="1"/>
+      <c r="C185" s="2"/>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="n">
+      <c r="A186" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="C186" s="1"/>
+      <c r="C186" s="2"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="n">
+      <c r="A187" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="C187" s="1"/>
+      <c r="C187" s="2"/>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="n">
+      <c r="A188" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="C188" s="1"/>
+      <c r="C188" s="2"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="n">
+      <c r="A189" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="C189" s="1"/>
+      <c r="C189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="n">
+      <c r="A190" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="C190" s="1"/>
+      <c r="C190" s="2"/>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="n">
+      <c r="A191" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="C191" s="1"/>
+      <c r="C191" s="2"/>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="n">
+      <c r="A192" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="C192" s="1"/>
+      <c r="C192" s="2"/>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="n">
+      <c r="A193" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="C193" s="1"/>
+      <c r="C193" s="2"/>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="n">
+      <c r="A194" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="C194" s="1"/>
+      <c r="C194" s="2"/>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="n">
+      <c r="A195" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="C195" s="1"/>
+      <c r="C195" s="2"/>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="n">
+      <c r="A196" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="C196" s="1"/>
+      <c r="C196" s="2"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="n">
+      <c r="A197" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="C197" s="1"/>
+      <c r="C197" s="2"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="n">
+      <c r="A198" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="C198" s="1"/>
+      <c r="C198" s="2"/>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="n">
+      <c r="A199" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="C199" s="1"/>
+      <c r="C199" s="2"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="n">
+      <c r="A200" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="C200" s="1"/>
+      <c r="C200" s="2"/>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="n">
+      <c r="A201" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="C201" s="1"/>
+      <c r="C201" s="2"/>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="n">
+      <c r="A202" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="C202" s="1"/>
+      <c r="C202" s="2"/>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="n">
+      <c r="A203" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="C203" s="1"/>
+      <c r="C203" s="2"/>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="n">
+      <c r="A204" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="C204" s="1"/>
+      <c r="C204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="n">
+      <c r="A205" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="C205" s="1"/>
+      <c r="C205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="n">
+      <c r="A206" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="C206" s="1"/>
+      <c r="C206" s="2"/>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="n">
+      <c r="A207" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="C207" s="1"/>
+      <c r="C207" s="2"/>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="n">
+      <c r="A208" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="C208" s="1"/>
+      <c r="C208" s="2"/>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="n">
+      <c r="A209" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="C209" s="1"/>
+      <c r="C209" s="2"/>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="n">
+      <c r="A210" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="C210" s="1"/>
+      <c r="C210" s="2"/>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="n">
+      <c r="A211" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="C211" s="1"/>
+      <c r="C211" s="2"/>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="n">
+      <c r="A212" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="C212" s="1"/>
+      <c r="C212" s="2"/>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="n">
+      <c r="A213" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="C213" s="1"/>
+      <c r="C213" s="2"/>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="n">
+      <c r="A214" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="C214" s="1"/>
+      <c r="C214" s="2"/>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="n">
+      <c r="A215" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="C215" s="1"/>
+      <c r="C215" s="2"/>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="n">
+      <c r="A216" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="C216" s="1"/>
+      <c r="C216" s="2"/>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="n">
+      <c r="A217" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="C217" s="1"/>
+      <c r="C217" s="2"/>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="n">
+      <c r="A218" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="C218" s="1"/>
+      <c r="C218" s="2"/>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="n">
+      <c r="A219" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="C219" s="1"/>
+      <c r="C219" s="2"/>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="n">
+      <c r="A220" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="C220" s="1"/>
+      <c r="C220" s="2"/>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="n">
+      <c r="A221" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="C221" s="1"/>
+      <c r="C221" s="2"/>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="1"/>
+      <c r="C222" s="2"/>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="1"/>
+      <c r="C223" s="2"/>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="1"/>
+      <c r="C224" s="2"/>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="1"/>
+      <c r="C225" s="2"/>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="1"/>
+      <c r="C226" s="2"/>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="1"/>
+      <c r="C227" s="2"/>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C228" s="1"/>
+      <c r="C228" s="2"/>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C229" s="1"/>
+      <c r="C229" s="2"/>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="1"/>
+      <c r="C230" s="2"/>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C231" s="1"/>
+      <c r="C231" s="2"/>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="1"/>
+      <c r="C232" s="2"/>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="1"/>
+      <c r="C233" s="2"/>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="1"/>
+      <c r="C234" s="2"/>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="1"/>
+      <c r="C235" s="2"/>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C236" s="1"/>
+      <c r="C236" s="2"/>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C237" s="1"/>
+      <c r="C237" s="2"/>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C238" s="1"/>
+      <c r="C238" s="2"/>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C239" s="1"/>
+      <c r="C239" s="2"/>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C240" s="1"/>
+      <c r="C240" s="2"/>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C241" s="1"/>
+      <c r="C241" s="2"/>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C242" s="1"/>
+      <c r="C242" s="2"/>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C243" s="1"/>
+      <c r="C243" s="2"/>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="1"/>
+      <c r="C244" s="2"/>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="1"/>
+      <c r="C245" s="2"/>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="1"/>
+      <c r="C246" s="2"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C247" s="1"/>
+      <c r="C247" s="2"/>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C248" s="1"/>
+      <c r="C248" s="2"/>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C249" s="1"/>
+      <c r="C249" s="2"/>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C250" s="1"/>
+      <c r="C250" s="2"/>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="1"/>
+      <c r="C251" s="2"/>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="1"/>
+      <c r="C252" s="2"/>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="1"/>
+      <c r="C253" s="2"/>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C254" s="1"/>
+      <c r="C254" s="2"/>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C255" s="1"/>
+      <c r="C255" s="2"/>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C256" s="1"/>
+      <c r="C256" s="2"/>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C257" s="1"/>
+      <c r="C257" s="2"/>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C258" s="1"/>
+      <c r="C258" s="2"/>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C259" s="1"/>
+      <c r="C259" s="2"/>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C260" s="1"/>
+      <c r="C260" s="2"/>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C261" s="1"/>
+      <c r="C261" s="2"/>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C262" s="1"/>
+      <c r="C262" s="2"/>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C263" s="1"/>
+      <c r="C263" s="2"/>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C264" s="1"/>
+      <c r="C264" s="2"/>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C265" s="1"/>
+      <c r="C265" s="2"/>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C266" s="1"/>
+      <c r="C266" s="2"/>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C267" s="1"/>
+      <c r="C267" s="2"/>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C268" s="1"/>
+      <c r="C268" s="2"/>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C269" s="1"/>
+      <c r="C269" s="2"/>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C270" s="1"/>
+      <c r="C270" s="2"/>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C271" s="1"/>
+      <c r="C271" s="2"/>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="1"/>
+      <c r="C272" s="2"/>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C273" s="1"/>
+      <c r="C273" s="2"/>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C274" s="1"/>
+      <c r="C274" s="2"/>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="1"/>
+      <c r="C275" s="2"/>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="1"/>
+      <c r="C276" s="2"/>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C277" s="1"/>
+      <c r="C277" s="2"/>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C278" s="1"/>
+      <c r="C278" s="2"/>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C279" s="1"/>
+      <c r="C279" s="2"/>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C280" s="1"/>
+      <c r="C280" s="2"/>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C281" s="1"/>
+      <c r="C281" s="2"/>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C282" s="1"/>
+      <c r="C282" s="2"/>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C283" s="1"/>
+      <c r="C283" s="2"/>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C284" s="1"/>
+      <c r="C284" s="2"/>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C285" s="1"/>
+      <c r="C285" s="2"/>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C286" s="1"/>
+      <c r="C286" s="2"/>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C287" s="1"/>
+      <c r="C287" s="2"/>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C288" s="1"/>
+      <c r="C288" s="2"/>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C289" s="1"/>
+      <c r="C289" s="2"/>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="1"/>
+      <c r="C290" s="2"/>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="1"/>
+      <c r="C291" s="2"/>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="1"/>
+      <c r="C292" s="2"/>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C293" s="1"/>
+      <c r="C293" s="2"/>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C294" s="1"/>
+      <c r="C294" s="2"/>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="1"/>
+      <c r="C295" s="2"/>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="1"/>
+      <c r="C296" s="2"/>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="1"/>
+      <c r="C297" s="2"/>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C298" s="1"/>
+      <c r="C298" s="2"/>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C299" s="1"/>
+      <c r="C299" s="2"/>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C300" s="1"/>
+      <c r="C300" s="2"/>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C301" s="1"/>
+      <c r="C301" s="2"/>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C302" s="1"/>
+      <c r="C302" s="2"/>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C303" s="1"/>
+      <c r="C303" s="2"/>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C304" s="1"/>
+      <c r="C304" s="2"/>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C305" s="1"/>
+      <c r="C305" s="2"/>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C306" s="1"/>
+      <c r="C306" s="2"/>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C307" s="1"/>
+      <c r="C307" s="2"/>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C308" s="1"/>
+      <c r="C308" s="2"/>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C309" s="1"/>
+      <c r="C309" s="2"/>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C310" s="1"/>
+      <c r="C310" s="2"/>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C311" s="1"/>
+      <c r="C311" s="2"/>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C312" s="1"/>
+      <c r="C312" s="2"/>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C313" s="1"/>
+      <c r="C313" s="2"/>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C314" s="1"/>
+      <c r="C314" s="2"/>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C315" s="1"/>
+      <c r="C315" s="2"/>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C316" s="1"/>
+      <c r="C316" s="2"/>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C317" s="1"/>
+      <c r="C317" s="2"/>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C318" s="1"/>
+      <c r="C318" s="2"/>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C319" s="1"/>
+      <c r="C319" s="2"/>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C320" s="1"/>
+      <c r="C320" s="2"/>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C321" s="1"/>
+      <c r="C321" s="2"/>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C322" s="1"/>
+      <c r="C322" s="2"/>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C323" s="1"/>
+      <c r="C323" s="2"/>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C324" s="1"/>
+      <c r="C324" s="2"/>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C325" s="1"/>
+      <c r="C325" s="2"/>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C326" s="1"/>
+      <c r="C326" s="2"/>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C327" s="1"/>
+      <c r="C327" s="2"/>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C328" s="1"/>
+      <c r="C328" s="2"/>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C329" s="1"/>
+      <c r="C329" s="2"/>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C330" s="1"/>
+      <c r="C330" s="2"/>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C331" s="1"/>
+      <c r="C331" s="2"/>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C332" s="1"/>
+      <c r="C332" s="2"/>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C333" s="1"/>
+      <c r="C333" s="2"/>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C334" s="1"/>
+      <c r="C334" s="2"/>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C335" s="1"/>
+      <c r="C335" s="2"/>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C336" s="1"/>
+      <c r="C336" s="2"/>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C337" s="1"/>
+      <c r="C337" s="2"/>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C338" s="1"/>
+      <c r="C338" s="2"/>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C339" s="1"/>
+      <c r="C339" s="2"/>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C340" s="1"/>
+      <c r="C340" s="2"/>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C341" s="1"/>
+      <c r="C341" s="2"/>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C342" s="1"/>
+      <c r="C342" s="2"/>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C343" s="1"/>
+      <c r="C343" s="2"/>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C344" s="1"/>
+      <c r="C344" s="2"/>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C345" s="1"/>
+      <c r="C345" s="2"/>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C346" s="1"/>
+      <c r="C346" s="2"/>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C347" s="1"/>
+      <c r="C347" s="2"/>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C348" s="1"/>
+      <c r="C348" s="2"/>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C349" s="1"/>
+      <c r="C349" s="2"/>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C350" s="1"/>
+      <c r="C350" s="2"/>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C351" s="1"/>
+      <c r="C351" s="2"/>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C352" s="1"/>
+      <c r="C352" s="2"/>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C353" s="1"/>
+      <c r="C353" s="2"/>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C354" s="1"/>
+      <c r="C354" s="2"/>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C355" s="1"/>
+      <c r="C355" s="2"/>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C356" s="1"/>
+      <c r="C356" s="2"/>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C357" s="1"/>
+      <c r="C357" s="2"/>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C358" s="1"/>
+      <c r="C358" s="2"/>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C359" s="1"/>
+      <c r="C359" s="2"/>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C360" s="1"/>
+      <c r="C360" s="2"/>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C361" s="1"/>
+      <c r="C361" s="2"/>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C362" s="1"/>
+      <c r="C362" s="2"/>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C363" s="1"/>
+      <c r="C363" s="2"/>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C364" s="1"/>
+      <c r="C364" s="2"/>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C365" s="1"/>
+      <c r="C365" s="2"/>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C366" s="1"/>
+      <c r="C366" s="2"/>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C367" s="1"/>
+      <c r="C367" s="2"/>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C368" s="1"/>
+      <c r="C368" s="2"/>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C369" s="1"/>
+      <c r="C369" s="2"/>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C370" s="1"/>
+      <c r="C370" s="2"/>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C371" s="1"/>
+      <c r="C371" s="2"/>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C372" s="1"/>
+      <c r="C372" s="2"/>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C373" s="1"/>
+      <c r="C373" s="2"/>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C374" s="1"/>
+      <c r="C374" s="2"/>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C375" s="1"/>
+      <c r="C375" s="2"/>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C376" s="1"/>
+      <c r="C376" s="2"/>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C377" s="1"/>
+      <c r="C377" s="2"/>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C378" s="1"/>
+      <c r="C378" s="2"/>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C379" s="1"/>
+      <c r="C379" s="2"/>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C380" s="1"/>
+      <c r="C380" s="2"/>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C381" s="1"/>
+      <c r="C381" s="2"/>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C382" s="1"/>
+      <c r="C382" s="2"/>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C383" s="1"/>
+      <c r="C383" s="2"/>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C384" s="1"/>
+      <c r="C384" s="2"/>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C385" s="1"/>
+      <c r="C385" s="2"/>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C386" s="1"/>
+      <c r="C386" s="2"/>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C387" s="1"/>
+      <c r="C387" s="2"/>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C388" s="1"/>
+      <c r="C388" s="2"/>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C389" s="1"/>
+      <c r="C389" s="2"/>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C390" s="1"/>
+      <c r="C390" s="2"/>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C391" s="1"/>
+      <c r="C391" s="2"/>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C392" s="1"/>
+      <c r="C392" s="2"/>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C393" s="1"/>
+      <c r="C393" s="2"/>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C394" s="1"/>
+      <c r="C394" s="2"/>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C395" s="1"/>
+      <c r="C395" s="2"/>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C396" s="1"/>
+      <c r="C396" s="2"/>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C397" s="1"/>
+      <c r="C397" s="2"/>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C398" s="1"/>
+      <c r="C398" s="2"/>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C399" s="1"/>
+      <c r="C399" s="2"/>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C400" s="1"/>
+      <c r="C400" s="2"/>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C401" s="1"/>
+      <c r="C401" s="2"/>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C402" s="1"/>
+      <c r="C402" s="2"/>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="1"/>
+      <c r="C403" s="2"/>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="1"/>
+      <c r="C404" s="2"/>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C405" s="1"/>
+      <c r="C405" s="2"/>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C406" s="1"/>
+      <c r="C406" s="2"/>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="1"/>
+      <c r="C407" s="2"/>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="1"/>
+      <c r="C408" s="2"/>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C409" s="1"/>
+      <c r="C409" s="2"/>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C410" s="1"/>
+      <c r="C410" s="2"/>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="1"/>
+      <c r="C411" s="2"/>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="1"/>
+      <c r="C412" s="2"/>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="1"/>
+      <c r="C413" s="2"/>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C414" s="1"/>
+      <c r="C414" s="2"/>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="1"/>
+      <c r="C415" s="2"/>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="1"/>
+      <c r="C416" s="2"/>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C417" s="1"/>
+      <c r="C417" s="2"/>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C418" s="1"/>
+      <c r="C418" s="2"/>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C419" s="1"/>
+      <c r="C419" s="2"/>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C420" s="1"/>
+      <c r="C420" s="2"/>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C421" s="1"/>
+      <c r="C421" s="2"/>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C422" s="1"/>
+      <c r="C422" s="2"/>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C423" s="1"/>
+      <c r="C423" s="2"/>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C424" s="1"/>
+      <c r="C424" s="2"/>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C425" s="1"/>
+      <c r="C425" s="2"/>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C426" s="1"/>
+      <c r="C426" s="2"/>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C427" s="1"/>
+      <c r="C427" s="2"/>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C428" s="1"/>
+      <c r="C428" s="2"/>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C429" s="1"/>
+      <c r="C429" s="2"/>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C430" s="1"/>
+      <c r="C430" s="2"/>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C431" s="1"/>
+      <c r="C431" s="2"/>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C432" s="1"/>
+      <c r="C432" s="2"/>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C433" s="1"/>
+      <c r="C433" s="2"/>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C434" s="1"/>
+      <c r="C434" s="2"/>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C435" s="1"/>
+      <c r="C435" s="2"/>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="1"/>
+      <c r="C436" s="2"/>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C437" s="1"/>
+      <c r="C437" s="2"/>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="1"/>
+      <c r="C438" s="2"/>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C439" s="1"/>
+      <c r="C439" s="2"/>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="1"/>
+      <c r="C440" s="2"/>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="1"/>
+      <c r="C441" s="2"/>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="1"/>
+      <c r="C442" s="2"/>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="1"/>
+      <c r="C443" s="2"/>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="1"/>
+      <c r="C444" s="2"/>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="1"/>
+      <c r="C445" s="2"/>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="1"/>
+      <c r="C446" s="2"/>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="1"/>
+      <c r="C447" s="2"/>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="1"/>
+      <c r="C448" s="2"/>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="1"/>
+      <c r="C449" s="2"/>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="1"/>
+      <c r="C450" s="2"/>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="1"/>
+      <c r="C451" s="2"/>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="1"/>
+      <c r="C452" s="2"/>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="1"/>
+      <c r="C453" s="2"/>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="1"/>
+      <c r="C454" s="2"/>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="1"/>
+      <c r="C455" s="2"/>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="1"/>
+      <c r="C456" s="2"/>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="1"/>
+      <c r="C457" s="2"/>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="1"/>
+      <c r="C458" s="2"/>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="1"/>
+      <c r="C459" s="2"/>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="1"/>
+      <c r="C460" s="2"/>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="1"/>
+      <c r="C461" s="2"/>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="1"/>
+      <c r="C462" s="2"/>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="1"/>
+      <c r="C463" s="2"/>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="1"/>
+      <c r="C464" s="2"/>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="1"/>
+      <c r="C465" s="2"/>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="1"/>
+      <c r="C466" s="2"/>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="1"/>
+      <c r="C467" s="2"/>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="1"/>
+      <c r="C468" s="2"/>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="1"/>
+      <c r="C469" s="2"/>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="1"/>
+      <c r="C470" s="2"/>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="1"/>
+      <c r="C471" s="2"/>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="1"/>
+      <c r="C472" s="2"/>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="1"/>
+      <c r="C473" s="2"/>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="1"/>
+      <c r="C474" s="2"/>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="1"/>
+      <c r="C475" s="2"/>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="1"/>
+      <c r="C476" s="2"/>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="1"/>
+      <c r="C477" s="2"/>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="1"/>
+      <c r="C478" s="2"/>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="1"/>
+      <c r="C479" s="2"/>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="1"/>
+      <c r="C480" s="2"/>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="1"/>
+      <c r="C481" s="2"/>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="1"/>
+      <c r="C482" s="2"/>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="1"/>
+      <c r="C483" s="2"/>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="1"/>
+      <c r="C484" s="2"/>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="1"/>
+      <c r="C485" s="2"/>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="1"/>
+      <c r="C486" s="2"/>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="1"/>
+      <c r="C487" s="2"/>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="1"/>
+      <c r="C488" s="2"/>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="1"/>
+      <c r="C489" s="2"/>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="1"/>
+      <c r="C490" s="2"/>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="1"/>
+      <c r="C491" s="2"/>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C492" s="1"/>
+      <c r="C492" s="2"/>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C493" s="1"/>
+      <c r="C493" s="2"/>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C494" s="1"/>
+      <c r="C494" s="2"/>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C495" s="1"/>
+      <c r="C495" s="2"/>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C496" s="1"/>
+      <c r="C496" s="2"/>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C497" s="1"/>
+      <c r="C497" s="2"/>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C498" s="1"/>
+      <c r="C498" s="2"/>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C499" s="1"/>
+      <c r="C499" s="2"/>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C500" s="1"/>
+      <c r="C500" s="2"/>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C501" s="1"/>
+      <c r="C501" s="2"/>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C502" s="1"/>
+      <c r="C502" s="2"/>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C503" s="1"/>
+      <c r="C503" s="2"/>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C504" s="1"/>
+      <c r="C504" s="2"/>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C505" s="1"/>
+      <c r="C505" s="2"/>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C506" s="1"/>
+      <c r="C506" s="2"/>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C507" s="1"/>
+      <c r="C507" s="2"/>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C508" s="1"/>
+      <c r="C508" s="2"/>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C509" s="1"/>
+      <c r="C509" s="2"/>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C510" s="1"/>
+      <c r="C510" s="2"/>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C511" s="1"/>
+      <c r="C511" s="2"/>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C512" s="1"/>
+      <c r="C512" s="2"/>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C513" s="1"/>
+      <c r="C513" s="2"/>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C514" s="1"/>
+      <c r="C514" s="2"/>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C515" s="1"/>
+      <c r="C515" s="2"/>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C516" s="1"/>
+      <c r="C516" s="2"/>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C517" s="1"/>
+      <c r="C517" s="2"/>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C518" s="1"/>
+      <c r="C518" s="2"/>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C519" s="1"/>
+      <c r="C519" s="2"/>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C520" s="1"/>
+      <c r="C520" s="2"/>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C521" s="1"/>
+      <c r="C521" s="2"/>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C522" s="1"/>
+      <c r="C522" s="2"/>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C523" s="1"/>
+      <c r="C523" s="2"/>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C524" s="1"/>
+      <c r="C524" s="2"/>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C525" s="1"/>
+      <c r="C525" s="2"/>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C526" s="1"/>
+      <c r="C526" s="2"/>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C527" s="1"/>
+      <c r="C527" s="2"/>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C528" s="1"/>
+      <c r="C528" s="2"/>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C529" s="1"/>
+      <c r="C529" s="2"/>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C530" s="1"/>
+      <c r="C530" s="2"/>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C531" s="1"/>
+      <c r="C531" s="2"/>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C532" s="1"/>
+      <c r="C532" s="2"/>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C533" s="1"/>
+      <c r="C533" s="2"/>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C534" s="1"/>
+      <c r="C534" s="2"/>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C535" s="1"/>
+      <c r="C535" s="2"/>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C536" s="1"/>
+      <c r="C536" s="2"/>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C537" s="1"/>
+      <c r="C537" s="2"/>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C538" s="1"/>
+      <c r="C538" s="2"/>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C539" s="1"/>
+      <c r="C539" s="2"/>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C540" s="1"/>
+      <c r="C540" s="2"/>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C541" s="1"/>
+      <c r="C541" s="2"/>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C542" s="1"/>
+      <c r="C542" s="2"/>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C543" s="1"/>
+      <c r="C543" s="2"/>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C544" s="1"/>
+      <c r="C544" s="2"/>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C545" s="1"/>
+      <c r="C545" s="2"/>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C546" s="1"/>
+      <c r="C546" s="2"/>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C547" s="1"/>
+      <c r="C547" s="2"/>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C548" s="1"/>
+      <c r="C548" s="2"/>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C549" s="1"/>
+      <c r="C549" s="2"/>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C550" s="1"/>
+      <c r="C550" s="2"/>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C551" s="1"/>
+      <c r="C551" s="2"/>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C552" s="1"/>
+      <c r="C552" s="2"/>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C553" s="1"/>
+      <c r="C553" s="2"/>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C554" s="1"/>
+      <c r="C554" s="2"/>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C555" s="1"/>
+      <c r="C555" s="2"/>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C556" s="1"/>
+      <c r="C556" s="2"/>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C557" s="1"/>
+      <c r="C557" s="2"/>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C558" s="1"/>
+      <c r="C558" s="2"/>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C559" s="1"/>
+      <c r="C559" s="2"/>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C560" s="1"/>
+      <c r="C560" s="2"/>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C561" s="1"/>
+      <c r="C561" s="2"/>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C562" s="1"/>
+      <c r="C562" s="2"/>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C563" s="1"/>
+      <c r="C563" s="2"/>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C564" s="1"/>
+      <c r="C564" s="2"/>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C565" s="1"/>
+      <c r="C565" s="2"/>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C566" s="1"/>
+      <c r="C566" s="2"/>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C567" s="1"/>
+      <c r="C567" s="2"/>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C568" s="1"/>
+      <c r="C568" s="2"/>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C569" s="1"/>
+      <c r="C569" s="2"/>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C570" s="1"/>
+      <c r="C570" s="2"/>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C571" s="1"/>
+      <c r="C571" s="2"/>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C572" s="1"/>
+      <c r="C572" s="2"/>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C573" s="1"/>
+      <c r="C573" s="2"/>
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C574" s="1"/>
+      <c r="C574" s="2"/>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C575" s="1"/>
+      <c r="C575" s="2"/>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C576" s="1"/>
+      <c r="C576" s="2"/>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C577" s="1"/>
+      <c r="C577" s="2"/>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C578" s="1"/>
+      <c r="C578" s="2"/>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C579" s="1"/>
+      <c r="C579" s="2"/>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C580" s="1"/>
+      <c r="C580" s="2"/>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C581" s="1"/>
+      <c r="C581" s="2"/>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C582" s="1"/>
+      <c r="C582" s="2"/>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C583" s="1"/>
+      <c r="C583" s="2"/>
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C584" s="1"/>
+      <c r="C584" s="2"/>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C585" s="1"/>
+      <c r="C585" s="2"/>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C586" s="1"/>
+      <c r="C586" s="2"/>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C587" s="1"/>
+      <c r="C587" s="2"/>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C588" s="1"/>
+      <c r="C588" s="2"/>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C589" s="1"/>
+      <c r="C589" s="2"/>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C590" s="1"/>
+      <c r="C590" s="2"/>
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C591" s="1"/>
+      <c r="C591" s="2"/>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C592" s="1"/>
+      <c r="C592" s="2"/>
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C593" s="1"/>
+      <c r="C593" s="2"/>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C594" s="1"/>
+      <c r="C594" s="2"/>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C595" s="1"/>
+      <c r="C595" s="2"/>
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C596" s="1"/>
+      <c r="C596" s="2"/>
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C597" s="1"/>
+      <c r="C597" s="2"/>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C598" s="1"/>
+      <c r="C598" s="2"/>
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C599" s="1"/>
+      <c r="C599" s="2"/>
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C600" s="1"/>
+      <c r="C600" s="2"/>
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C601" s="1"/>
+      <c r="C601" s="2"/>
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C602" s="1"/>
+      <c r="C602" s="2"/>
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C603" s="1"/>
+      <c r="C603" s="2"/>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C604" s="1"/>
+      <c r="C604" s="2"/>
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C605" s="1"/>
+      <c r="C605" s="2"/>
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C606" s="1"/>
+      <c r="C606" s="2"/>
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C607" s="1"/>
+      <c r="C607" s="2"/>
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C608" s="1"/>
+      <c r="C608" s="2"/>
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C609" s="1"/>
+      <c r="C609" s="2"/>
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C610" s="1"/>
+      <c r="C610" s="2"/>
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C611" s="1"/>
+      <c r="C611" s="2"/>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C612" s="1"/>
+      <c r="C612" s="2"/>
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C613" s="1"/>
+      <c r="C613" s="2"/>
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C614" s="1"/>
+      <c r="C614" s="2"/>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C615" s="1"/>
+      <c r="C615" s="2"/>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C616" s="1"/>
+      <c r="C616" s="2"/>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C617" s="1"/>
+      <c r="C617" s="2"/>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C618" s="1"/>
+      <c r="C618" s="2"/>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C619" s="1"/>
+      <c r="C619" s="2"/>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C620" s="1"/>
+      <c r="C620" s="2"/>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C621" s="1"/>
+      <c r="C621" s="2"/>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C622" s="1"/>
+      <c r="C622" s="2"/>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C623" s="1"/>
+      <c r="C623" s="2"/>
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C624" s="1"/>
+      <c r="C624" s="2"/>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C625" s="1"/>
+      <c r="C625" s="2"/>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C626" s="1"/>
+      <c r="C626" s="2"/>
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C627" s="1"/>
+      <c r="C627" s="2"/>
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C628" s="1"/>
+      <c r="C628" s="2"/>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C629" s="1"/>
+      <c r="C629" s="2"/>
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C630" s="1"/>
+      <c r="C630" s="2"/>
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C631" s="1"/>
+      <c r="C631" s="2"/>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C632" s="1"/>
+      <c r="C632" s="2"/>
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C633" s="1"/>
+      <c r="C633" s="2"/>
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C634" s="1"/>
+      <c r="C634" s="2"/>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C635" s="1"/>
+      <c r="C635" s="2"/>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C636" s="1"/>
+      <c r="C636" s="2"/>
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C637" s="1"/>
+      <c r="C637" s="2"/>
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C638" s="1"/>
+      <c r="C638" s="2"/>
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C639" s="1"/>
+      <c r="C639" s="2"/>
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C640" s="1"/>
+      <c r="C640" s="2"/>
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C641" s="1"/>
+      <c r="C641" s="2"/>
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C642" s="1"/>
+      <c r="C642" s="2"/>
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C643" s="1"/>
+      <c r="C643" s="2"/>
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C644" s="1"/>
+      <c r="C644" s="2"/>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C645" s="1"/>
+      <c r="C645" s="2"/>
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C646" s="1"/>
+      <c r="C646" s="2"/>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C647" s="1"/>
+      <c r="C647" s="2"/>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C648" s="1"/>
+      <c r="C648" s="2"/>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C649" s="1"/>
+      <c r="C649" s="2"/>
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C650" s="1"/>
+      <c r="C650" s="2"/>
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C651" s="1"/>
+      <c r="C651" s="2"/>
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C652" s="1"/>
+      <c r="C652" s="2"/>
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C653" s="1"/>
+      <c r="C653" s="2"/>
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C654" s="1"/>
+      <c r="C654" s="2"/>
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C655" s="1"/>
+      <c r="C655" s="2"/>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C656" s="1"/>
+      <c r="C656" s="2"/>
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C657" s="1"/>
+      <c r="C657" s="2"/>
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C658" s="1"/>
+      <c r="C658" s="2"/>
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C659" s="1"/>
+      <c r="C659" s="2"/>
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C660" s="1"/>
+      <c r="C660" s="2"/>
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C661" s="1"/>
+      <c r="C661" s="2"/>
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C662" s="1"/>
+      <c r="C662" s="2"/>
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C663" s="1"/>
+      <c r="C663" s="2"/>
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C664" s="1"/>
+      <c r="C664" s="2"/>
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C665" s="1"/>
+      <c r="C665" s="2"/>
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C666" s="1"/>
+      <c r="C666" s="2"/>
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C667" s="1"/>
+      <c r="C667" s="2"/>
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C668" s="1"/>
+      <c r="C668" s="2"/>
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C669" s="1"/>
+      <c r="C669" s="2"/>
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C670" s="1"/>
+      <c r="C670" s="2"/>
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C671" s="1"/>
+      <c r="C671" s="2"/>
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C672" s="1"/>
+      <c r="C672" s="2"/>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C673" s="1"/>
+      <c r="C673" s="2"/>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C674" s="1"/>
+      <c r="C674" s="2"/>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C675" s="1"/>
+      <c r="C675" s="2"/>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C676" s="1"/>
+      <c r="C676" s="2"/>
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C677" s="1"/>
+      <c r="C677" s="2"/>
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C678" s="1"/>
+      <c r="C678" s="2"/>
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C679" s="1"/>
+      <c r="C679" s="2"/>
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C680" s="1"/>
+      <c r="C680" s="2"/>
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C681" s="1"/>
+      <c r="C681" s="2"/>
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C682" s="1"/>
+      <c r="C682" s="2"/>
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C683" s="1"/>
+      <c r="C683" s="2"/>
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C684" s="1"/>
+      <c r="C684" s="2"/>
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C685" s="1"/>
+      <c r="C685" s="2"/>
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C686" s="1"/>
+      <c r="C686" s="2"/>
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C687" s="1"/>
+      <c r="C687" s="2"/>
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C688" s="1"/>
+      <c r="C688" s="2"/>
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C689" s="1"/>
+      <c r="C689" s="2"/>
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C690" s="1"/>
+      <c r="C690" s="2"/>
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C691" s="1"/>
+      <c r="C691" s="2"/>
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C692" s="1"/>
+      <c r="C692" s="2"/>
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C693" s="1"/>
+      <c r="C693" s="2"/>
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C694" s="1"/>
+      <c r="C694" s="2"/>
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C695" s="1"/>
+      <c r="C695" s="2"/>
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C696" s="1"/>
+      <c r="C696" s="2"/>
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C697" s="1"/>
+      <c r="C697" s="2"/>
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C698" s="1"/>
+      <c r="C698" s="2"/>
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C699" s="1"/>
+      <c r="C699" s="2"/>
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C700" s="1"/>
+      <c r="C700" s="2"/>
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C701" s="1"/>
+      <c r="C701" s="2"/>
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C702" s="1"/>
+      <c r="C702" s="2"/>
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C703" s="1"/>
+      <c r="C703" s="2"/>
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C704" s="1"/>
+      <c r="C704" s="2"/>
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C705" s="1"/>
+      <c r="C705" s="2"/>
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C706" s="1"/>
+      <c r="C706" s="2"/>
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C707" s="1"/>
+      <c r="C707" s="2"/>
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C708" s="1"/>
+      <c r="C708" s="2"/>
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C709" s="1"/>
+      <c r="C709" s="2"/>
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C710" s="1"/>
+      <c r="C710" s="2"/>
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C711" s="1"/>
+      <c r="C711" s="2"/>
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C712" s="1"/>
+      <c r="C712" s="2"/>
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C713" s="1"/>
+      <c r="C713" s="2"/>
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C714" s="1"/>
+      <c r="C714" s="2"/>
     </row>
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C715" s="1"/>
+      <c r="C715" s="2"/>
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C716" s="1"/>
+      <c r="C716" s="2"/>
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C717" s="1"/>
+      <c r="C717" s="2"/>
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C718" s="1"/>
+      <c r="C718" s="2"/>
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C719" s="1"/>
+      <c r="C719" s="2"/>
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C720" s="1"/>
+      <c r="C720" s="2"/>
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C721" s="1"/>
+      <c r="C721" s="2"/>
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C722" s="1"/>
+      <c r="C722" s="2"/>
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C723" s="1"/>
+      <c r="C723" s="2"/>
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C724" s="1"/>
+      <c r="C724" s="2"/>
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C725" s="1"/>
+      <c r="C725" s="2"/>
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C726" s="1"/>
+      <c r="C726" s="2"/>
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C727" s="1"/>
+      <c r="C727" s="2"/>
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C728" s="1"/>
+      <c r="C728" s="2"/>
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C729" s="1"/>
+      <c r="C729" s="2"/>
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C730" s="1"/>
+      <c r="C730" s="2"/>
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C731" s="1"/>
+      <c r="C731" s="2"/>
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C732" s="1"/>
+      <c r="C732" s="2"/>
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C733" s="1"/>
+      <c r="C733" s="2"/>
     </row>
     <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C734" s="1"/>
+      <c r="C734" s="2"/>
     </row>
     <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C735" s="1"/>
+      <c r="C735" s="2"/>
     </row>
     <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C736" s="1"/>
+      <c r="C736" s="2"/>
     </row>
     <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C737" s="1"/>
+      <c r="C737" s="2"/>
     </row>
     <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C738" s="1"/>
+      <c r="C738" s="2"/>
     </row>
     <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C739" s="1"/>
+      <c r="C739" s="2"/>
     </row>
     <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C740" s="1"/>
+      <c r="C740" s="2"/>
     </row>
     <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C741" s="1"/>
+      <c r="C741" s="2"/>
     </row>
     <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C742" s="1"/>
+      <c r="C742" s="2"/>
     </row>
     <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C743" s="1"/>
+      <c r="C743" s="2"/>
     </row>
     <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C744" s="1"/>
+      <c r="C744" s="2"/>
     </row>
     <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C745" s="1"/>
+      <c r="C745" s="2"/>
     </row>
     <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C746" s="1"/>
+      <c r="C746" s="2"/>
     </row>
     <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C747" s="1"/>
+      <c r="C747" s="2"/>
     </row>
     <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C748" s="1"/>
+      <c r="C748" s="2"/>
     </row>
     <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C749" s="1"/>
+      <c r="C749" s="2"/>
     </row>
     <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C750" s="1"/>
+      <c r="C750" s="2"/>
     </row>
     <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C751" s="1"/>
+      <c r="C751" s="2"/>
     </row>
     <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C752" s="1"/>
+      <c r="C752" s="2"/>
     </row>
     <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C753" s="1"/>
+      <c r="C753" s="2"/>
     </row>
     <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C754" s="1"/>
+      <c r="C754" s="2"/>
     </row>
     <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C755" s="1"/>
+      <c r="C755" s="2"/>
     </row>
     <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C756" s="1"/>
+      <c r="C756" s="2"/>
     </row>
     <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C757" s="1"/>
+      <c r="C757" s="2"/>
     </row>
     <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C758" s="1"/>
+      <c r="C758" s="2"/>
     </row>
     <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C759" s="1"/>
+      <c r="C759" s="2"/>
     </row>
     <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C760" s="1"/>
+      <c r="C760" s="2"/>
     </row>
     <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C761" s="1"/>
+      <c r="C761" s="2"/>
     </row>
     <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C762" s="1"/>
+      <c r="C762" s="2"/>
     </row>
     <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C763" s="1"/>
+      <c r="C763" s="2"/>
     </row>
     <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C764" s="1"/>
+      <c r="C764" s="2"/>
     </row>
     <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C765" s="1"/>
+      <c r="C765" s="2"/>
     </row>
     <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C766" s="1"/>
+      <c r="C766" s="2"/>
     </row>
     <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C767" s="1"/>
+      <c r="C767" s="2"/>
     </row>
     <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C768" s="1"/>
+      <c r="C768" s="2"/>
     </row>
     <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C769" s="1"/>
+      <c r="C769" s="2"/>
     </row>
     <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C770" s="1"/>
+      <c r="C770" s="2"/>
     </row>
     <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C771" s="1"/>
+      <c r="C771" s="2"/>
     </row>
     <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C772" s="1"/>
+      <c r="C772" s="2"/>
     </row>
     <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C773" s="1"/>
+      <c r="C773" s="2"/>
     </row>
     <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C774" s="1"/>
+      <c r="C774" s="2"/>
     </row>
     <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C775" s="1"/>
+      <c r="C775" s="2"/>
     </row>
     <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C776" s="1"/>
+      <c r="C776" s="2"/>
     </row>
     <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C777" s="1"/>
+      <c r="C777" s="2"/>
     </row>
     <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C778" s="1"/>
+      <c r="C778" s="2"/>
     </row>
     <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C779" s="1"/>
+      <c r="C779" s="2"/>
     </row>
     <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C780" s="1"/>
+      <c r="C780" s="2"/>
     </row>
     <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C781" s="1"/>
+      <c r="C781" s="2"/>
     </row>
     <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C782" s="1"/>
+      <c r="C782" s="2"/>
     </row>
     <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C783" s="1"/>
+      <c r="C783" s="2"/>
     </row>
     <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C784" s="1"/>
+      <c r="C784" s="2"/>
     </row>
     <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C785" s="1"/>
+      <c r="C785" s="2"/>
     </row>
     <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C786" s="1"/>
+      <c r="C786" s="2"/>
     </row>
     <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C787" s="1"/>
+      <c r="C787" s="2"/>
     </row>
     <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C788" s="1"/>
+      <c r="C788" s="2"/>
     </row>
     <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C789" s="1"/>
+      <c r="C789" s="2"/>
     </row>
     <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C790" s="1"/>
+      <c r="C790" s="2"/>
     </row>
     <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C791" s="1"/>
+      <c r="C791" s="2"/>
     </row>
     <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C792" s="1"/>
+      <c r="C792" s="2"/>
     </row>
     <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C793" s="1"/>
+      <c r="C793" s="2"/>
     </row>
     <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C794" s="1"/>
+      <c r="C794" s="2"/>
     </row>
     <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C795" s="1"/>
+      <c r="C795" s="2"/>
     </row>
     <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C796" s="1"/>
+      <c r="C796" s="2"/>
     </row>
     <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C797" s="1"/>
+      <c r="C797" s="2"/>
     </row>
     <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C798" s="1"/>
+      <c r="C798" s="2"/>
     </row>
     <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C799" s="1"/>
+      <c r="C799" s="2"/>
     </row>
     <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C800" s="1"/>
+      <c r="C800" s="2"/>
     </row>
     <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C801" s="1"/>
+      <c r="C801" s="2"/>
     </row>
     <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C802" s="1"/>
+      <c r="C802" s="2"/>
     </row>
     <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C803" s="1"/>
+      <c r="C803" s="2"/>
     </row>
     <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C804" s="1"/>
+      <c r="C804" s="2"/>
     </row>
     <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C805" s="1"/>
+      <c r="C805" s="2"/>
     </row>
     <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C806" s="1"/>
+      <c r="C806" s="2"/>
     </row>
     <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C807" s="1"/>
+      <c r="C807" s="2"/>
     </row>
     <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C808" s="1"/>
+      <c r="C808" s="2"/>
     </row>
     <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C809" s="1"/>
+      <c r="C809" s="2"/>
     </row>
     <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C810" s="1"/>
+      <c r="C810" s="2"/>
     </row>
     <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C811" s="1"/>
+      <c r="C811" s="2"/>
     </row>
     <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C812" s="1"/>
+      <c r="C812" s="2"/>
     </row>
     <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C813" s="1"/>
+      <c r="C813" s="2"/>
     </row>
     <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C814" s="1"/>
+      <c r="C814" s="2"/>
     </row>
     <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C815" s="1"/>
+      <c r="C815" s="2"/>
     </row>
     <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C816" s="1"/>
+      <c r="C816" s="2"/>
     </row>
     <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C817" s="1"/>
+      <c r="C817" s="2"/>
     </row>
     <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C818" s="1"/>
+      <c r="C818" s="2"/>
     </row>
     <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C819" s="1"/>
+      <c r="C819" s="2"/>
     </row>
     <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C820" s="1"/>
+      <c r="C820" s="2"/>
     </row>
     <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C821" s="1"/>
+      <c r="C821" s="2"/>
     </row>
     <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C822" s="1"/>
+      <c r="C822" s="2"/>
     </row>
     <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C823" s="1"/>
+      <c r="C823" s="2"/>
     </row>
     <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C824" s="1"/>
+      <c r="C824" s="2"/>
     </row>
     <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C825" s="1"/>
+      <c r="C825" s="2"/>
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C826" s="1"/>
+      <c r="C826" s="2"/>
     </row>
     <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C827" s="1"/>
+      <c r="C827" s="2"/>
     </row>
     <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C828" s="1"/>
+      <c r="C828" s="2"/>
     </row>
     <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C829" s="1"/>
+      <c r="C829" s="2"/>
     </row>
     <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C830" s="1"/>
+      <c r="C830" s="2"/>
     </row>
     <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C831" s="1"/>
+      <c r="C831" s="2"/>
     </row>
     <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C832" s="1"/>
+      <c r="C832" s="2"/>
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C833" s="1"/>
+      <c r="C833" s="2"/>
     </row>
     <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C834" s="1"/>
+      <c r="C834" s="2"/>
     </row>
     <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C835" s="1"/>
+      <c r="C835" s="2"/>
     </row>
     <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C836" s="1"/>
+      <c r="C836" s="2"/>
     </row>
     <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C837" s="1"/>
+      <c r="C837" s="2"/>
     </row>
     <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C838" s="1"/>
+      <c r="C838" s="2"/>
     </row>
     <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C839" s="1"/>
+      <c r="C839" s="2"/>
     </row>
     <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C840" s="1"/>
+      <c r="C840" s="2"/>
     </row>
     <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C841" s="1"/>
+      <c r="C841" s="2"/>
     </row>
     <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C842" s="1"/>
+      <c r="C842" s="2"/>
     </row>
     <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C843" s="1"/>
+      <c r="C843" s="2"/>
     </row>
     <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C844" s="1"/>
+      <c r="C844" s="2"/>
     </row>
     <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C845" s="1"/>
+      <c r="C845" s="2"/>
     </row>
     <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C846" s="1"/>
+      <c r="C846" s="2"/>
     </row>
     <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C847" s="1"/>
+      <c r="C847" s="2"/>
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C848" s="1"/>
+      <c r="C848" s="2"/>
     </row>
     <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C849" s="1"/>
+      <c r="C849" s="2"/>
     </row>
     <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C850" s="1"/>
+      <c r="C850" s="2"/>
     </row>
     <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C851" s="1"/>
+      <c r="C851" s="2"/>
     </row>
     <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C852" s="1"/>
+      <c r="C852" s="2"/>
     </row>
     <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C853" s="1"/>
+      <c r="C853" s="2"/>
     </row>
     <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C854" s="1"/>
+      <c r="C854" s="2"/>
     </row>
     <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C855" s="1"/>
+      <c r="C855" s="2"/>
     </row>
     <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C856" s="1"/>
+      <c r="C856" s="2"/>
     </row>
     <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C857" s="1"/>
+      <c r="C857" s="2"/>
     </row>
     <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C858" s="1"/>
+      <c r="C858" s="2"/>
     </row>
     <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C859" s="1"/>
+      <c r="C859" s="2"/>
     </row>
     <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C860" s="1"/>
+      <c r="C860" s="2"/>
     </row>
     <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C861" s="1"/>
+      <c r="C861" s="2"/>
     </row>
     <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C862" s="1"/>
+      <c r="C862" s="2"/>
     </row>
     <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C863" s="1"/>
+      <c r="C863" s="2"/>
     </row>
     <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C864" s="1"/>
+      <c r="C864" s="2"/>
     </row>
     <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C865" s="1"/>
+      <c r="C865" s="2"/>
     </row>
     <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C866" s="1"/>
+      <c r="C866" s="2"/>
     </row>
     <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C867" s="1"/>
+      <c r="C867" s="2"/>
     </row>
     <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C868" s="1"/>
+      <c r="C868" s="2"/>
     </row>
     <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C869" s="1"/>
+      <c r="C869" s="2"/>
     </row>
     <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C870" s="1"/>
+      <c r="C870" s="2"/>
     </row>
     <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C871" s="1"/>
+      <c r="C871" s="2"/>
     </row>
     <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C872" s="1"/>
+      <c r="C872" s="2"/>
     </row>
     <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C873" s="1"/>
+      <c r="C873" s="2"/>
     </row>
     <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C874" s="1"/>
+      <c r="C874" s="2"/>
     </row>
     <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C875" s="1"/>
+      <c r="C875" s="2"/>
     </row>
     <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C876" s="1"/>
+      <c r="C876" s="2"/>
     </row>
     <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C877" s="1"/>
+      <c r="C877" s="2"/>
     </row>
     <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C878" s="1"/>
+      <c r="C878" s="2"/>
     </row>
     <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C879" s="1"/>
+      <c r="C879" s="2"/>
     </row>
     <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C880" s="1"/>
+      <c r="C880" s="2"/>
     </row>
     <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C881" s="1"/>
+      <c r="C881" s="2"/>
     </row>
     <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C882" s="1"/>
+      <c r="C882" s="2"/>
     </row>
     <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C883" s="1"/>
+      <c r="C883" s="2"/>
     </row>
     <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C884" s="1"/>
+      <c r="C884" s="2"/>
     </row>
     <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C885" s="1"/>
+      <c r="C885" s="2"/>
     </row>
     <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C886" s="1"/>
+      <c r="C886" s="2"/>
     </row>
     <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C887" s="1"/>
+      <c r="C887" s="2"/>
     </row>
     <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C888" s="1"/>
+      <c r="C888" s="2"/>
     </row>
     <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C889" s="1"/>
+      <c r="C889" s="2"/>
     </row>
     <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C890" s="1"/>
+      <c r="C890" s="2"/>
     </row>
     <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C891" s="1"/>
+      <c r="C891" s="2"/>
     </row>
     <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C892" s="1"/>
+      <c r="C892" s="2"/>
     </row>
     <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C893" s="1"/>
+      <c r="C893" s="2"/>
     </row>
     <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C894" s="1"/>
+      <c r="C894" s="2"/>
     </row>
     <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C895" s="1"/>
+      <c r="C895" s="2"/>
     </row>
     <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C896" s="1"/>
+      <c r="C896" s="2"/>
     </row>
     <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C897" s="1"/>
+      <c r="C897" s="2"/>
     </row>
     <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C898" s="1"/>
+      <c r="C898" s="2"/>
     </row>
     <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C899" s="1"/>
+      <c r="C899" s="2"/>
     </row>
     <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C900" s="1"/>
+      <c r="C900" s="2"/>
     </row>
     <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C901" s="1"/>
+      <c r="C901" s="2"/>
     </row>
     <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C902" s="1"/>
+      <c r="C902" s="2"/>
     </row>
     <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C903" s="1"/>
+      <c r="C903" s="2"/>
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C904" s="1"/>
+      <c r="C904" s="2"/>
     </row>
     <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C905" s="1"/>
+      <c r="C905" s="2"/>
     </row>
     <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C906" s="1"/>
+      <c r="C906" s="2"/>
     </row>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C907" s="1"/>
+      <c r="C907" s="2"/>
     </row>
     <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C908" s="1"/>
+      <c r="C908" s="2"/>
     </row>
     <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C909" s="1"/>
+      <c r="C909" s="2"/>
     </row>
     <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C910" s="1"/>
+      <c r="C910" s="2"/>
     </row>
     <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C911" s="1"/>
+      <c r="C911" s="2"/>
     </row>
     <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C912" s="1"/>
+      <c r="C912" s="2"/>
     </row>
     <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C913" s="1"/>
+      <c r="C913" s="2"/>
     </row>
     <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C914" s="1"/>
+      <c r="C914" s="2"/>
     </row>
     <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C915" s="1"/>
+      <c r="C915" s="2"/>
     </row>
     <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C916" s="1"/>
+      <c r="C916" s="2"/>
     </row>
     <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C917" s="1"/>
+      <c r="C917" s="2"/>
     </row>
     <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C918" s="1"/>
+      <c r="C918" s="2"/>
     </row>
     <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C919" s="1"/>
+      <c r="C919" s="2"/>
     </row>
     <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C920" s="1"/>
+      <c r="C920" s="2"/>
     </row>
     <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C921" s="1"/>
+      <c r="C921" s="2"/>
     </row>
     <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C922" s="1"/>
+      <c r="C922" s="2"/>
     </row>
     <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C923" s="1"/>
+      <c r="C923" s="2"/>
     </row>
     <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C924" s="1"/>
+      <c r="C924" s="2"/>
     </row>
     <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C925" s="1"/>
+      <c r="C925" s="2"/>
     </row>
     <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C926" s="1"/>
+      <c r="C926" s="2"/>
     </row>
     <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C927" s="1"/>
+      <c r="C927" s="2"/>
     </row>
     <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C928" s="1"/>
+      <c r="C928" s="2"/>
     </row>
     <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C929" s="1"/>
+      <c r="C929" s="2"/>
     </row>
     <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C930" s="1"/>
+      <c r="C930" s="2"/>
     </row>
     <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C931" s="1"/>
+      <c r="C931" s="2"/>
     </row>
     <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C932" s="1"/>
+      <c r="C932" s="2"/>
     </row>
     <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C933" s="1"/>
+      <c r="C933" s="2"/>
     </row>
     <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C934" s="1"/>
+      <c r="C934" s="2"/>
     </row>
     <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C935" s="1"/>
+      <c r="C935" s="2"/>
     </row>
     <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C936" s="1"/>
+      <c r="C936" s="2"/>
     </row>
     <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C937" s="1"/>
+      <c r="C937" s="2"/>
     </row>
     <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C938" s="1"/>
+      <c r="C938" s="2"/>
     </row>
     <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C939" s="1"/>
+      <c r="C939" s="2"/>
     </row>
     <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C940" s="1"/>
+      <c r="C940" s="2"/>
     </row>
     <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C941" s="1"/>
+      <c r="C941" s="2"/>
     </row>
     <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C942" s="1"/>
+      <c r="C942" s="2"/>
     </row>
     <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C943" s="1"/>
+      <c r="C943" s="2"/>
     </row>
     <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C944" s="1"/>
+      <c r="C944" s="2"/>
     </row>
     <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C945" s="1"/>
+      <c r="C945" s="2"/>
     </row>
     <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C946" s="1"/>
+      <c r="C946" s="2"/>
     </row>
     <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C947" s="1"/>
+      <c r="C947" s="2"/>
     </row>
     <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C948" s="1"/>
+      <c r="C948" s="2"/>
     </row>
     <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C949" s="1"/>
+      <c r="C949" s="2"/>
     </row>
     <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C950" s="1"/>
+      <c r="C950" s="2"/>
     </row>
     <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C951" s="1"/>
+      <c r="C951" s="2"/>
     </row>
     <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C952" s="1"/>
+      <c r="C952" s="2"/>
     </row>
     <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C953" s="1"/>
+      <c r="C953" s="2"/>
     </row>
     <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C954" s="1"/>
+      <c r="C954" s="2"/>
     </row>
     <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C955" s="1"/>
+      <c r="C955" s="2"/>
     </row>
     <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C956" s="1"/>
+      <c r="C956" s="2"/>
     </row>
     <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C957" s="1"/>
+      <c r="C957" s="2"/>
     </row>
     <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C958" s="1"/>
+      <c r="C958" s="2"/>
     </row>
     <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C959" s="1"/>
+      <c r="C959" s="2"/>
     </row>
     <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C960" s="1"/>
+      <c r="C960" s="2"/>
     </row>
     <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C961" s="1"/>
+      <c r="C961" s="2"/>
     </row>
     <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C962" s="1"/>
+      <c r="C962" s="2"/>
     </row>
     <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C963" s="1"/>
+      <c r="C963" s="2"/>
     </row>
     <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C964" s="1"/>
+      <c r="C964" s="2"/>
     </row>
     <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C965" s="1"/>
+      <c r="C965" s="2"/>
     </row>
     <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C966" s="1"/>
+      <c r="C966" s="2"/>
     </row>
     <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C967" s="1"/>
+      <c r="C967" s="2"/>
     </row>
     <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C968" s="1"/>
+      <c r="C968" s="2"/>
     </row>
     <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C969" s="1"/>
+      <c r="C969" s="2"/>
     </row>
     <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C970" s="1"/>
+      <c r="C970" s="2"/>
     </row>
     <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C971" s="1"/>
+      <c r="C971" s="2"/>
     </row>
     <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C972" s="1"/>
+      <c r="C972" s="2"/>
     </row>
     <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C973" s="1"/>
+      <c r="C973" s="2"/>
     </row>
     <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C974" s="1"/>
+      <c r="C974" s="2"/>
     </row>
     <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C975" s="1"/>
+      <c r="C975" s="2"/>
     </row>
     <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C976" s="1"/>
+      <c r="C976" s="2"/>
     </row>
     <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C977" s="1"/>
+      <c r="C977" s="2"/>
     </row>
     <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C978" s="1"/>
+      <c r="C978" s="2"/>
     </row>
     <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C979" s="1"/>
+      <c r="C979" s="2"/>
     </row>
     <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C980" s="1"/>
+      <c r="C980" s="2"/>
     </row>
     <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C981" s="1"/>
+      <c r="C981" s="2"/>
     </row>
     <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C982" s="1"/>
+      <c r="C982" s="2"/>
     </row>
     <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C983" s="1"/>
+      <c r="C983" s="2"/>
     </row>
     <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C984" s="1"/>
+      <c r="C984" s="2"/>
     </row>
     <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C985" s="1"/>
+      <c r="C985" s="2"/>
     </row>
     <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C986" s="1"/>
+      <c r="C986" s="2"/>
     </row>
     <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C987" s="1"/>
+      <c r="C987" s="2"/>
     </row>
     <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C988" s="1"/>
+      <c r="C988" s="2"/>
     </row>
     <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C989" s="1"/>
+      <c r="C989" s="2"/>
     </row>
     <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C990" s="1"/>
+      <c r="C990" s="2"/>
     </row>
     <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C991" s="1"/>
+      <c r="C991" s="2"/>
     </row>
     <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C992" s="1"/>
+      <c r="C992" s="2"/>
     </row>
     <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C993" s="1"/>
+      <c r="C993" s="2"/>
     </row>
     <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C994" s="1"/>
+      <c r="C994" s="2"/>
     </row>
     <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C995" s="1"/>
+      <c r="C995" s="2"/>
     </row>
     <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C996" s="1"/>
+      <c r="C996" s="2"/>
     </row>
     <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C997" s="1"/>
+      <c r="C997" s="2"/>
     </row>
     <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C998" s="1"/>
+      <c r="C998" s="2"/>
     </row>
     <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C999" s="1"/>
+      <c r="C999" s="2"/>
     </row>
     <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1000" s="1"/>
+      <c r="C1000" s="2"/>
     </row>
     <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1001" s="1"/>
+      <c r="C1001" s="2"/>
     </row>
     <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1002" s="1"/>
+      <c r="C1002" s="2"/>
     </row>
     <row r="1003" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1003" s="1"/>
+      <c r="C1003" s="2"/>
     </row>
     <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1004" s="1"/>
+      <c r="C1004" s="2"/>
     </row>
     <row r="1005" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1005" s="1"/>
+      <c r="C1005" s="2"/>
     </row>
     <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1006" s="1"/>
+      <c r="C1006" s="2"/>
     </row>
     <row r="1007" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1007" s="1"/>
+      <c r="C1007" s="2"/>
     </row>
     <row r="1008" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1008" s="1"/>
+      <c r="C1008" s="2"/>
     </row>
     <row r="1009" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1009" s="1"/>
+      <c r="C1009" s="2"/>
     </row>
     <row r="1010" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1010" s="1"/>
+      <c r="C1010" s="2"/>
     </row>
     <row r="1011" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1011" s="1"/>
+      <c r="C1011" s="2"/>
     </row>
     <row r="1012" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1012" s="1"/>
+      <c r="C1012" s="2"/>
     </row>
     <row r="1013" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1013" s="1"/>
+      <c r="C1013" s="2"/>
     </row>
     <row r="1014" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1014" s="1"/>
+      <c r="C1014" s="2"/>
     </row>
     <row r="1015" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1015" s="1"/>
+      <c r="C1015" s="2"/>
     </row>
     <row r="1016" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1016" s="1"/>
+      <c r="C1016" s="2"/>
     </row>
     <row r="1017" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1017" s="1"/>
+      <c r="C1017" s="2"/>
     </row>
     <row r="1018" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1018" s="1"/>
+      <c r="C1018" s="2"/>
     </row>
     <row r="1019" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1019" s="1"/>
+      <c r="C1019" s="2"/>
     </row>
     <row r="1020" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1020" s="1"/>
+      <c r="C1020" s="2"/>
     </row>
     <row r="1021" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1021" s="1"/>
+      <c r="C1021" s="2"/>
     </row>
     <row r="1022" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1022" s="1"/>
+      <c r="C1022" s="2"/>
     </row>
     <row r="1023" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1023" s="1"/>
+      <c r="C1023" s="2"/>
     </row>
     <row r="1024" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1024" s="1"/>
+      <c r="C1024" s="2"/>
     </row>
     <row r="1025" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1025" s="1"/>
+      <c r="C1025" s="2"/>
     </row>
     <row r="1026" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1026" s="1"/>
+      <c r="C1026" s="2"/>
     </row>
     <row r="1027" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1027" s="1"/>
+      <c r="C1027" s="2"/>
     </row>
     <row r="1028" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1028" s="1"/>
+      <c r="C1028" s="2"/>
     </row>
     <row r="1029" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1029" s="1"/>
+      <c r="C1029" s="2"/>
     </row>
     <row r="1030" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1030" s="1"/>
+      <c r="C1030" s="2"/>
     </row>
     <row r="1031" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1031" s="1"/>
+      <c r="C1031" s="2"/>
     </row>
     <row r="1032" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1032" s="1"/>
+      <c r="C1032" s="2"/>
     </row>
     <row r="1033" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1033" s="1"/>
+      <c r="C1033" s="2"/>
     </row>
     <row r="1034" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1034" s="1"/>
+      <c r="C1034" s="2"/>
     </row>
     <row r="1035" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1035" s="1"/>
+      <c r="C1035" s="2"/>
     </row>
     <row r="1036" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1036" s="1"/>
+      <c r="C1036" s="2"/>
     </row>
     <row r="1037" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1037" s="1"/>
+      <c r="C1037" s="2"/>
     </row>
     <row r="1038" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1038" s="1"/>
+      <c r="C1038" s="2"/>
     </row>
     <row r="1039" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1039" s="1"/>
+      <c r="C1039" s="2"/>
     </row>
     <row r="1040" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1040" s="1"/>
+      <c r="C1040" s="2"/>
     </row>
     <row r="1041" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1041" s="1"/>
+      <c r="C1041" s="2"/>
     </row>
     <row r="1042" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1042" s="1"/>
+      <c r="C1042" s="2"/>
     </row>
     <row r="1043" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1043" s="1"/>
+      <c r="C1043" s="2"/>
     </row>
     <row r="1044" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1044" s="1"/>
+      <c r="C1044" s="2"/>
     </row>
     <row r="1045" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1045" s="1"/>
+      <c r="C1045" s="2"/>
     </row>
     <row r="1046" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1046" s="1"/>
+      <c r="C1046" s="2"/>
     </row>
     <row r="1047" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1047" s="1"/>
+      <c r="C1047" s="2"/>
     </row>
     <row r="1048" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1048" s="1"/>
+      <c r="C1048" s="2"/>
     </row>
     <row r="1049" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1049" s="1"/>
+      <c r="C1049" s="2"/>
     </row>
     <row r="1050" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1050" s="1"/>
+      <c r="C1050" s="2"/>
     </row>
     <row r="1051" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1051" s="1"/>
+      <c r="C1051" s="2"/>
     </row>
     <row r="1052" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1052" s="1"/>
+      <c r="C1052" s="2"/>
     </row>
     <row r="1053" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1053" s="1"/>
+      <c r="C1053" s="2"/>
     </row>
     <row r="1054" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1054" s="1"/>
+      <c r="C1054" s="2"/>
     </row>
     <row r="1055" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1055" s="1"/>
+      <c r="C1055" s="2"/>
     </row>
     <row r="1056" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1056" s="1"/>
+      <c r="C1056" s="2"/>
     </row>
     <row r="1057" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1057" s="1"/>
+      <c r="C1057" s="2"/>
     </row>
     <row r="1058" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1058" s="1"/>
+      <c r="C1058" s="2"/>
     </row>
     <row r="1059" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1059" s="1"/>
+      <c r="C1059" s="2"/>
     </row>
     <row r="1060" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1060" s="1"/>
+      <c r="C1060" s="2"/>
     </row>
     <row r="1061" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1061" s="1"/>
+      <c r="C1061" s="2"/>
     </row>
     <row r="1062" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1062" s="1"/>
+      <c r="C1062" s="2"/>
     </row>
     <row r="1063" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1063" s="1"/>
+      <c r="C1063" s="2"/>
     </row>
     <row r="1064" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1064" s="1"/>
+      <c r="C1064" s="2"/>
     </row>
     <row r="1065" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1065" s="1"/>
+      <c r="C1065" s="2"/>
     </row>
     <row r="1066" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1066" s="1"/>
+      <c r="C1066" s="2"/>
     </row>
     <row r="1067" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1067" s="1"/>
+      <c r="C1067" s="2"/>
     </row>
     <row r="1068" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1068" s="1"/>
+      <c r="C1068" s="2"/>
     </row>
     <row r="1069" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1069" s="1"/>
+      <c r="C1069" s="2"/>
     </row>
     <row r="1070" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1070" s="1"/>
+      <c r="C1070" s="2"/>
     </row>
     <row r="1071" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1071" s="1"/>
+      <c r="C1071" s="2"/>
     </row>
     <row r="1072" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1072" s="1"/>
+      <c r="C1072" s="2"/>
     </row>
     <row r="1073" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1073" s="1"/>
+      <c r="C1073" s="2"/>
     </row>
     <row r="1074" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1074" s="1"/>
+      <c r="C1074" s="2"/>
     </row>
     <row r="1075" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1075" s="1"/>
+      <c r="C1075" s="2"/>
     </row>
     <row r="1076" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1076" s="1"/>
+      <c r="C1076" s="2"/>
     </row>
     <row r="1077" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1077" s="1"/>
+      <c r="C1077" s="2"/>
     </row>
     <row r="1078" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1078" s="1"/>
+      <c r="C1078" s="2"/>
     </row>
     <row r="1079" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1079" s="1"/>
+      <c r="C1079" s="2"/>
     </row>
     <row r="1080" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1080" s="1"/>
+      <c r="C1080" s="2"/>
     </row>
     <row r="1081" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1081" s="1"/>
+      <c r="C1081" s="2"/>
     </row>
     <row r="1082" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1082" s="1"/>
+      <c r="C1082" s="2"/>
     </row>
     <row r="1083" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1083" s="1"/>
+      <c r="C1083" s="2"/>
     </row>
     <row r="1084" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1084" s="1"/>
+      <c r="C1084" s="2"/>
     </row>
     <row r="1085" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1085" s="1"/>
+      <c r="C1085" s="2"/>
     </row>
     <row r="1086" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1086" s="1"/>
+      <c r="C1086" s="2"/>
     </row>
     <row r="1087" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1087" s="1"/>
+      <c r="C1087" s="2"/>
     </row>
     <row r="1088" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1088" s="1"/>
+      <c r="C1088" s="2"/>
     </row>
     <row r="1089" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1089" s="1"/>
+      <c r="C1089" s="2"/>
     </row>
     <row r="1090" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1090" s="1"/>
+      <c r="C1090" s="2"/>
     </row>
     <row r="1091" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1091" s="1"/>
+      <c r="C1091" s="2"/>
     </row>
     <row r="1092" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1092" s="1"/>
+      <c r="C1092" s="2"/>
     </row>
     <row r="1093" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1093" s="1"/>
+      <c r="C1093" s="2"/>
     </row>
     <row r="1094" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1094" s="1"/>
+      <c r="C1094" s="2"/>
     </row>
     <row r="1095" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1095" s="1"/>
+      <c r="C1095" s="2"/>
     </row>
     <row r="1096" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1096" s="1"/>
+      <c r="C1096" s="2"/>
     </row>
     <row r="1097" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1097" s="1"/>
+      <c r="C1097" s="2"/>
     </row>
     <row r="1098" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1098" s="1"/>
+      <c r="C1098" s="2"/>
     </row>
     <row r="1099" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1099" s="1"/>
+      <c r="C1099" s="2"/>
     </row>
     <row r="1100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1100" s="1"/>
+      <c r="C1100" s="2"/>
     </row>
     <row r="1101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1101" s="1"/>
+      <c r="C1101" s="2"/>
     </row>
     <row r="1102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1102" s="1"/>
+      <c r="C1102" s="2"/>
     </row>
     <row r="1103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1103" s="1"/>
+      <c r="C1103" s="2"/>
     </row>
     <row r="1104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1104" s="1"/>
+      <c r="C1104" s="2"/>
     </row>
     <row r="1105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1105" s="1"/>
+      <c r="C1105" s="2"/>
     </row>
     <row r="1106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1106" s="1"/>
+      <c r="C1106" s="2"/>
     </row>
     <row r="1107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1107" s="1"/>
+      <c r="C1107" s="2"/>
     </row>
     <row r="1108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1108" s="1"/>
+      <c r="C1108" s="2"/>
     </row>
     <row r="1109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1109" s="1"/>
+      <c r="C1109" s="2"/>
     </row>
     <row r="1110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1110" s="1"/>
+      <c r="C1110" s="2"/>
     </row>
     <row r="1111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1111" s="1"/>
+      <c r="C1111" s="2"/>
     </row>
     <row r="1112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1112" s="1"/>
+      <c r="C1112" s="2"/>
     </row>
     <row r="1113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1113" s="1"/>
+      <c r="C1113" s="2"/>
     </row>
     <row r="1114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1114" s="1"/>
+      <c r="C1114" s="2"/>
     </row>
     <row r="1115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1115" s="1"/>
+      <c r="C1115" s="2"/>
     </row>
     <row r="1116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1116" s="1"/>
+      <c r="C1116" s="2"/>
     </row>
     <row r="1117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1117" s="1"/>
+      <c r="C1117" s="2"/>
     </row>
     <row r="1118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1118" s="1"/>
+      <c r="C1118" s="2"/>
     </row>
     <row r="1119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1119" s="1"/>
+      <c r="C1119" s="2"/>
     </row>
     <row r="1120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1120" s="1"/>
+      <c r="C1120" s="2"/>
     </row>
     <row r="1121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1121" s="1"/>
+      <c r="C1121" s="2"/>
     </row>
     <row r="1122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1122" s="1"/>
+      <c r="C1122" s="2"/>
     </row>
     <row r="1123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1123" s="1"/>
+      <c r="C1123" s="2"/>
     </row>
     <row r="1124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1124" s="1"/>
+      <c r="C1124" s="2"/>
     </row>
     <row r="1125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1125" s="1"/>
+      <c r="C1125" s="2"/>
     </row>
     <row r="1126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1126" s="1"/>
+      <c r="C1126" s="2"/>
     </row>
     <row r="1127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1127" s="1"/>
+      <c r="C1127" s="2"/>
     </row>
     <row r="1128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1128" s="1"/>
+      <c r="C1128" s="2"/>
     </row>
     <row r="1129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1129" s="1"/>
+      <c r="C1129" s="2"/>
     </row>
     <row r="1130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1130" s="1"/>
+      <c r="C1130" s="2"/>
     </row>
     <row r="1131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1131" s="1"/>
+      <c r="C1131" s="2"/>
     </row>
     <row r="1132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1132" s="1"/>
+      <c r="C1132" s="2"/>
     </row>
     <row r="1133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1133" s="1"/>
+      <c r="C1133" s="2"/>
     </row>
     <row r="1134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1134" s="1"/>
+      <c r="C1134" s="2"/>
     </row>
     <row r="1135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1135" s="1"/>
+      <c r="C1135" s="2"/>
     </row>
     <row r="1136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1136" s="1"/>
+      <c r="C1136" s="2"/>
     </row>
     <row r="1137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1137" s="1"/>
+      <c r="C1137" s="2"/>
     </row>
     <row r="1138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1138" s="1"/>
+      <c r="C1138" s="2"/>
     </row>
     <row r="1139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1139" s="1"/>
+      <c r="C1139" s="2"/>
     </row>
     <row r="1140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1140" s="1"/>
+      <c r="C1140" s="2"/>
     </row>
     <row r="1141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1141" s="1"/>
+      <c r="C1141" s="2"/>
     </row>
     <row r="1142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1142" s="1"/>
+      <c r="C1142" s="2"/>
     </row>
     <row r="1143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1143" s="1"/>
+      <c r="C1143" s="2"/>
     </row>
     <row r="1144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1144" s="1"/>
+      <c r="C1144" s="2"/>
     </row>
     <row r="1145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1145" s="1"/>
+      <c r="C1145" s="2"/>
     </row>
     <row r="1146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1146" s="1"/>
+      <c r="C1146" s="2"/>
     </row>
     <row r="1147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1147" s="1"/>
+      <c r="C1147" s="2"/>
     </row>
     <row r="1148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1148" s="1"/>
+      <c r="C1148" s="2"/>
     </row>
     <row r="1149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1149" s="1"/>
+      <c r="C1149" s="2"/>
     </row>
     <row r="1150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1150" s="1"/>
+      <c r="C1150" s="2"/>
     </row>
     <row r="1151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1151" s="1"/>
+      <c r="C1151" s="2"/>
     </row>
     <row r="1152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1152" s="1"/>
+      <c r="C1152" s="2"/>
     </row>
     <row r="1153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1153" s="1"/>
+      <c r="C1153" s="2"/>
     </row>
     <row r="1154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1154" s="1"/>
+      <c r="C1154" s="2"/>
     </row>
     <row r="1155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1155" s="1"/>
+      <c r="C1155" s="2"/>
     </row>
     <row r="1156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1156" s="1"/>
+      <c r="C1156" s="2"/>
     </row>
     <row r="1157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1157" s="1"/>
+      <c r="C1157" s="2"/>
     </row>
     <row r="1158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1158" s="1"/>
+      <c r="C1158" s="2"/>
     </row>
     <row r="1159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1159" s="1"/>
+      <c r="C1159" s="2"/>
     </row>
     <row r="1160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1160" s="1"/>
+      <c r="C1160" s="2"/>
     </row>
     <row r="1161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1161" s="1"/>
+      <c r="C1161" s="2"/>
     </row>
     <row r="1162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1162" s="1"/>
+      <c r="C1162" s="2"/>
     </row>
     <row r="1163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1163" s="1"/>
+      <c r="C1163" s="2"/>
     </row>
     <row r="1164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1164" s="1"/>
+      <c r="C1164" s="2"/>
     </row>
     <row r="1165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1165" s="1"/>
+      <c r="C1165" s="2"/>
     </row>
     <row r="1166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1166" s="1"/>
+      <c r="C1166" s="2"/>
     </row>
     <row r="1167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1167" s="1"/>
+      <c r="C1167" s="2"/>
     </row>
     <row r="1168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1168" s="1"/>
+      <c r="C1168" s="2"/>
     </row>
     <row r="1169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1169" s="1"/>
+      <c r="C1169" s="2"/>
     </row>
     <row r="1170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1170" s="1"/>
+      <c r="C1170" s="2"/>
     </row>
     <row r="1171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1171" s="1"/>
+      <c r="C1171" s="2"/>
     </row>
     <row r="1172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1172" s="1"/>
+      <c r="C1172" s="2"/>
     </row>
     <row r="1173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1173" s="1"/>
+      <c r="C1173" s="2"/>
     </row>
     <row r="1174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1174" s="1"/>
+      <c r="C1174" s="2"/>
     </row>
     <row r="1175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1175" s="1"/>
+      <c r="C1175" s="2"/>
     </row>
     <row r="1176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1176" s="1"/>
+      <c r="C1176" s="2"/>
     </row>
     <row r="1177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1177" s="1"/>
+      <c r="C1177" s="2"/>
     </row>
     <row r="1178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1178" s="1"/>
+      <c r="C1178" s="2"/>
     </row>
     <row r="1179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1179" s="1"/>
+      <c r="C1179" s="2"/>
     </row>
     <row r="1180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1180" s="1"/>
+      <c r="C1180" s="2"/>
     </row>
     <row r="1181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1181" s="1"/>
+      <c r="C1181" s="2"/>
     </row>
     <row r="1182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1182" s="1"/>
+      <c r="C1182" s="2"/>
     </row>
     <row r="1183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1183" s="1"/>
+      <c r="C1183" s="2"/>
     </row>
     <row r="1184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1184" s="1"/>
+      <c r="C1184" s="2"/>
     </row>
     <row r="1185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1185" s="1"/>
+      <c r="C1185" s="2"/>
     </row>
     <row r="1186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1186" s="1"/>
+      <c r="C1186" s="2"/>
     </row>
     <row r="1187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1187" s="1"/>
+      <c r="C1187" s="2"/>
     </row>
     <row r="1188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1188" s="1"/>
+      <c r="C1188" s="2"/>
     </row>
     <row r="1189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1189" s="1"/>
+      <c r="C1189" s="2"/>
     </row>
     <row r="1190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1190" s="1"/>
+      <c r="C1190" s="2"/>
     </row>
     <row r="1191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1191" s="1"/>
+      <c r="C1191" s="2"/>
     </row>
     <row r="1192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1192" s="1"/>
+      <c r="C1192" s="2"/>
     </row>
     <row r="1193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1193" s="1"/>
+      <c r="C1193" s="2"/>
     </row>
     <row r="1194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1194" s="1"/>
+      <c r="C1194" s="2"/>
     </row>
     <row r="1195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1195" s="1"/>
+      <c r="C1195" s="2"/>
     </row>
     <row r="1196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1196" s="1"/>
+      <c r="C1196" s="2"/>
     </row>
     <row r="1197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1197" s="1"/>
+      <c r="C1197" s="2"/>
     </row>
     <row r="1198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1198" s="1"/>
+      <c r="C1198" s="2"/>
     </row>
     <row r="1199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1199" s="1"/>
+      <c r="C1199" s="2"/>
     </row>
     <row r="1200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1200" s="1"/>
+      <c r="C1200" s="2"/>
     </row>
     <row r="1201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1201" s="1"/>
+      <c r="C1201" s="2"/>
     </row>
     <row r="1202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1202" s="1"/>
+      <c r="C1202" s="2"/>
     </row>
     <row r="1203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1203" s="1"/>
+      <c r="C1203" s="2"/>
     </row>
     <row r="1204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1204" s="1"/>
+      <c r="C1204" s="2"/>
     </row>
     <row r="1205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1205" s="1"/>
+      <c r="C1205" s="2"/>
     </row>
     <row r="1206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1206" s="1"/>
+      <c r="C1206" s="2"/>
     </row>
     <row r="1207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1207" s="1"/>
+      <c r="C1207" s="2"/>
     </row>
     <row r="1208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1208" s="1"/>
+      <c r="C1208" s="2"/>
     </row>
     <row r="1209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1209" s="1"/>
+      <c r="C1209" s="2"/>
     </row>
     <row r="1210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1210" s="1"/>
+      <c r="C1210" s="2"/>
     </row>
     <row r="1211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1211" s="1"/>
+      <c r="C1211" s="2"/>
     </row>
     <row r="1212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1212" s="1"/>
+      <c r="C1212" s="2"/>
     </row>
     <row r="1213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1213" s="1"/>
+      <c r="C1213" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C13 C43:C1213 C15:C41">
@@ -5791,7 +5815,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{4933EE66-F269-43DB-8685-00A4A7A2A7AF}">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{EB44E320-2A71-463E-9EA6-336DE8C3337D}">
             <xm:f>NOT(ISERROR(SEARCH("no",C1)))</xm:f>
             <xm:f>"no"</xm:f>
             <x14:dxf>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="100">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t xml:space="preserve">Good problem, not very hard after understanding BST property that values are sorted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find if subTree is present in Tree. By hearing the video explanation i was able to translate it to code without looking at the coding solution</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -539,6 +545,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -909,8 +919,8 @@
   </sheetPr>
   <dimension ref="A1:L1213"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1761,7 +1771,21 @@
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="B45" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
@@ -5815,7 +5839,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{EB44E320-2A71-463E-9EA6-336DE8C3337D}">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{EA8CAA59-319F-4FDF-95EE-A1584F7080B5}">
             <xm:f>NOT(ISERROR(SEARCH("no",C1)))</xm:f>
             <xm:f>"no"</xm:f>
             <x14:dxf>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t xml:space="preserve">Find if subTree is present in Tree. By hearing the video explanation i was able to translate it to code without looking at the coding solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Temperatures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Problem solving exercise, because the code implementation is not that hard after figuring out the problem</t>
   </si>
 </sst>
 </file>
@@ -479,7 +485,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -545,10 +551,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -919,8 +921,8 @@
   </sheetPr>
   <dimension ref="A1:L1213"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F48" activeCellId="0" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1783,7 +1785,7 @@
       <c r="E45" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="14" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1791,7 +1793,21 @@
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="B46" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
@@ -5839,7 +5855,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{EA8CAA59-319F-4FDF-95EE-A1584F7080B5}">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{AB4094C0-E585-48CB-BCCC-48D22A3512A0}">
             <xm:f>NOT(ISERROR(SEARCH("no",C1)))</xm:f>
             <xm:f>"no"</xm:f>
             <x14:dxf>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
   <si>
     <t xml:space="preserve">Problem</t>
   </si>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t xml:space="preserve">Good Problem solving exercise, because the code implementation is not that hard after figuring out the problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car Fleet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couldn't do it, spcially without stack. When peaking solution they are also using stack and its the one you see below </t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -551,6 +557,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -922,7 +932,7 @@
   <dimension ref="A1:L1213"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F48" activeCellId="0" sqref="F48"/>
+      <selection pane="topLeft" activeCell="E48" activeCellId="0" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1813,7 +1823,21 @@
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="B47" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
@@ -5855,7 +5879,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{AB4094C0-E585-48CB-BCCC-48D22A3512A0}">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{7B5028C6-70DE-419F-BED2-7D24A3C062E8}">
             <xm:f>NOT(ISERROR(SEARCH("no",C1)))</xm:f>
             <xm:f>"no"</xm:f>
             <x14:dxf>
